--- a/deuChatbot/research_result/table_to_json(2500_300).xlsx
+++ b/deuChatbot/research_result/table_to_json(2500_300).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20870,6 +20870,6842 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 구체적인 정보를 제공하는 대신, 해당 정보가 포함되어 있지 않다고 주장하고 있습니다. 이는 사실과 다르며, 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 예를 들어, 원본 텍스트는 실기시험의 구체적인 내용과 주제를 명시하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 구체적인 내용과는 관련이 적습니다. 원본의 주요 포인트를 다루지 않고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기시험에 대한 구체적인 정보를 제공하지 않기 때문에 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘 반영하지 못하고 있으며, 부적절한 주장을 포함하고 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6966407553301416</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>현재 제공된 정보에는 디자인조형학과의 실기시험 내용이 포함되어 있지 않습니다. 디자인조형학과의 실기시험은 학교나 대학마다 다를 수 있으므로, 정확한 내용을 확인하려면 해당 대학의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do) 또는 입학처에 직접 문의하는 것이 가장 좋습니다.
+일반적으로 디자인조형학과의 실기시험은 다음과 같은 주제를 다루는 경우가 많습니다:
+1. **그림 그리기**: 다양한 도구와 매체를 사용하여 그림을 그리는 능력을 평가합니다.
+2. **디자인 프로젝트**: 특정 주제에 대한 디자인 프로젝트를 제출하거나, 주어진 문제를 해결하는 능력을 평가합니다.
+3. **색채론**: 색의 원리를 이해하고 이를 활용하여 작품을 완성하는 능력을 평가합니다.
+정확한 내용과 절차는 대학 입학처에서 확인할 수 있으니, 해당 웹사이트를 방문하거나 직접 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 세부 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8517775229478146</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 두 가지가 있습니다. 각각의 세부사항은 다음과 같습니다.
+1. **기초디자인**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절
+   - **시간**: 5시간
+2. **사고의 전환**
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절
+   - **시간**: 5시간
+이러한 준비물과 실기주제, 화지크기 및 시간은 디자인조형학과의 실기고사에서 요구되는 기본 사항입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 관련된 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 대회에 대한 설명이 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 배드민턴과 축구의 인정 대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.862171011594014</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 모집종목별 인정대회에 대해 설명 드리겠습니다.
+배드민턴(남)의 경우, 다음과 같은 대회가 인정됩니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)의 경우, 다음과 같은 대회가 인정됩니다:
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-문화체육관광부장관배전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 모집이 이루어지며, 각 대회에서 입상하거나 우승한 경력이 있는 학생들이 유리하게 평가받습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 내용, 시험 당일의 절차 및 예시까지 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트를 직접적으로 다루고 있으며, 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 전반적으로 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.790754336979168</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩을 선택하여 연결된 주제를 작성하게 됩니다. 예시로 주제A와 주제B는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 주제들 중에서 각각 1개씩을 추첨하여 연결된 주제를 작성하게 됩니다. 예시로는 잠자리와 저울이라는 주제가 될 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "출결상황은 다른 전형에서만 반영됩니다"라는 부분은 명확한 정보가 아니며, 다른 전형에 대한 구체적인 언급이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 점수가 농어촌학생전형에서 반영되지 않는다고 명시하고 있지만, "출결상황은 다른 전형에서만 반영됩니다"라는 문구는 원문과 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 학생부 교과 전형의 출결 점수 반영 여부에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제가 일관되게 유지되고 있습니다. 그러나 "출결상황은 다른 전형에서만 반영됩니다"라는 문장이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있지만, 다른 전형에 대한 언급이 명확하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 문구에서의 모호함이 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, "출결상황은 다른 전형에서만 반영됩니다"라는 부분이 다소 모호하여 의미 전달에 약간의 문제가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어지면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.6288468555489923</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부교과(농어촌학생전형)에서는 출결 상황이 반영되지 않습니다. 출결상황은 다른 전형에서만 반영됩니다. 자세한 내용은 "기타사항 나군 실기/실적(경기실적우수자전형) 학생부 출결상황 반영방법" 섹션을 참조하시면 됩니다.
+하지만, 농어촌학생전형에서는 출결이 반영되지 않음을 알려드립니다. 만약 더 자세한 정보가 필요하다면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원이 정해지지 않았다고 주장하지만, 원본 텍스트에서는 17명을 모집한다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본에서는 모집 인원이 명확히 제시되었으나, 생성된 응답에서는 모집 인원이 정해지지 않았다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본의 핵심 정보인 모집 인원에 대한 정확한 답변을 제공하지 않기 때문에 낮은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 모집 인원에 대한 정보가 잘못 전달되고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 원본 텍스트와의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 모집 인원에 대한 잘못된 정보로 인해 의미 전달이 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 보통 수준입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.7166577266327824</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학의 국어국문학과에서 가군 일반학생전형으로는 모집인원이 정해지지 않았습니다. 해당 정보가 제공된 리스트 내에서는 이와 관련된 데이터가 없습니다. 더 자세한 정보를 얻기 위해서는 공식 웹사이트 https://ipsi. deu. ac. kr/main. do를 참조하시거나 관계부서에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 인문사회과학대학 영어영문학과의 모집 인원에 대한 정확한 정보를 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원문에서는 28명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답은 이 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 담고 있습니다. 원문에서 명확히 언급된 모집 인원에 대한 정보가 없다고 주장하는 것은 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 질문에 대한 답변을 제공하지 않고, 대신 다른 정보를 찾으라는 안내를 하고 있습니다. 이는 질문의 핵심에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 질문에 대한 적절한 답변을 제공하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5904474319990226</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 직접적으로 나와 있지 않습니다. 다른 계열이나 단과대학의 모집인원만이 나와 있습니다. 
+다군 일반학생 전형에서 인문사회과학대학의 영어영문학과를 모집하는 정원외 인원은 해당 정보가 포함되어 있지 않으므로, 이에 대한 정확한 답변을 드리기 어렵습니다.
+더 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트를 방문하여 최신의 모집요강을 확인해보시거나, 대학 입학처로 직접 문의해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수를 110명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 22명과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 간호학과의 모집 전형에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "정원 내 모집 인원"이라는 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 문장은 일관된 주제를 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 정보의 정확성과 일관성이 부족하지만, 주제와의 관련성은 높습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 관련이 있지만, 잘못된 수치로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7162171703167729</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 영어영역 등급에 따른 점수를 잘못 제시하고 있습니다. 원본 텍스트에서는 각 등급에 대한 점수가 명확히 제시되었으나, 생성된 응답은 등급과 점수의 관계가 전혀 다릅니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트의 점수와 생성된 응답의 점수는 서로 다른 기준을 사용하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 원본 텍스트의 내용과는 관련이 없습니다. 원본 텍스트의 점수 체계와는 전혀 다른 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 점수와 등급에 대한 정보가 전혀 맞지 않으며, 사실적으로 부정확합니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 수능 영어 등급에 대한 점수를 다루고 있지만, 원본 텍스트의 의미와는 전혀 다른 내용을 담고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성과 관련성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.8687236435181871</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다.
+- 등급 1 : 4.5점 이상 -&gt; 350점
+- 등급 2 : 4.0~4.49점 -&gt; 325점
+- 등급 3 : 3.5~3.99점 -&gt; 300점
+- 등급 4 : 3.0~3.49점 -&gt; 275점
+- 등급 5 : 2.5~2.99점 -&gt; 250점
+- 등급 6 : 2.0~2.49점 -&gt; 225점
+- 등급 7 : 1.5~1.99점 -&gt; 200점
+- 등급 8 : 1.0~1.49점 -&gt; 175점
+- 등급 9 : 0.5~0.99점 -&gt; 150점
+- 등급 10 : 0.0~0.49점 -&gt; 125점
+위와 같이 수능 영어 등급에 따라 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원문에서는 예술고 학생이 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 담고 있어 일관성이 없습니다. 원문에서 예술고 학생은 지원할 수 없다고 명시했으나, 생성된 응답은 지원 가능하다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 주제와의 관련성이 낮습니다. 원문에서의 핵심 내용은 예술고 학생의 지원 불가에 대한 것이므로, 생성된 응답은 그에 대한 반대의 내용을 담고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있으나, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다. 원문과의 불일치로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다. 예술고 학생이 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.7202274026166456</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 지원 자격은 다음과 같습니다:
+1. **6년 과정**:
+   - 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자로서
+   - 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자
+2. **12년 과정**:
+   - 부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자
+제출 서류는 다음과 같습니다:
+- **6년 과정**:
+  - 지원자 본인의 가족관계증명서
+  - 지원자 본인, 부모의 주민등록초본 (총 3부)
+  - 중학교 학교생활기록부
+  - 고등학교 학교생활기록부
+- **12년 과정**:
+  - 지원자 본인의 주민등록초본
+  - 초등학교 학교생활기록부
+  - 중학교 학교생활기록부
+  - 고등학교 학교생활기록부
+따라서 예술고 학생이 농어촌 지역에 소재하는 학교에서 교육과정을 이수하고 거주한 경우, 해당 전형으로 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4등급 기록을 218cm 이상으로 언급하고 있지만, 원본 텍스트에서는 218~221 cm로 명확히 범위를 제시하고 있습니다. 따라서 약간의 부정확성이 있지만, 전반적으로 정보는 정확합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 배점도 일치합니다. 그러나 기록 범위의 표현이 다소 다르기 때문에 완전한 일치는 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 기록 범위의 표현에서 약간의 차이가 있지만, 배점과 관련된 정보는 정확합니다. 따라서 전반적으로 정확하지만, 세부 사항에서 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 여러 차원에서 전반적으로 좋은 품질을 보이지만, 세부적인 사실에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.9063194968105592</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 218cm 이상이며, 이 기록에 대한 배점은 275점입니다.
+이 정보는 다음과 같이 정리되었습니다:
+- 기록: 218cm 이상
+- 배점: 275점
+만약 더 자세한 정보가 필요하시거나 확인하실 부분이 있으시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보를 부정확하게 전달하고 있습니다. 원본 텍스트에 명시된 12%라는 정보가 누락되었고, 잘못된 주장을 하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 출결 반영 비율을 명확히 제시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제와 관련이 없습니다. 출결 반영 비율에 대한 질문에 대해 전혀 관련 없는 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부적절함으로 인해 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 원본의 정보와 관련이 없는 내용으로 인해 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 출결 반영 비율에 대한 정확한 정보를 제공하지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 비교적 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5623520385407229</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 경기지도학과의 출결 반영 비율에 대한 내용이 포함되어 있지 않습니다. 다른 관련 정보를 찾거나, 필요하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 참조해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452573014624494</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가 정보도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5058092279023365</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 2024. 01. 17.(수)에 있습니다.
+추가로, 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 최저 학력 기준이 없다는 원문 내용을 정확하게 반영하고 있습니다. 추가적인 정보도 제공하고 있어 사실성을 잘 유지하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 없다는 점을 반복적으로 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다. 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 큰 문제는 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성이 높습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.498752219100438</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 응용화학과에 대한 정보가 제공된 문서 내에서는 수능 최저기준이 언급되어 있지 않습니다. 각 학과별로 수능 위주 전형에서 수능 최저기준이 없음을 확인하였습니다.
+따라서 동의대학교 2024학년도 응용화학과의 수능 최저기준은 "수능최저기준 없음"으로 표시되어 있습니다. 더 자세한 정보를 얻으려면 대학 입학처나 공식 웹사이트를 참조하시거나 직접 문의하시는 것이 좋습니다.
+https://ipsi. deu. ac. kr/main. do 링크를 통해 동의대학교의 공식 웹사이트를 방문하여 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 심리학과, 스마트항만물류학과, 창업투자경영학과에 대한 정보를 포함하고 있지만, 라이프융합학부와 경기지도학과에 대한 언급이 없어서 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학과에 대한 정보를 제공하지만, 원본 텍스트에 포함된 모든 학과를 언급하지 않아 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 직접적으로 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 학과에 대한 정확한 정보를 제공하지만, 모든 신설 학과를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 모든 학과를 포함하지 않아 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 내용을 담고 있지만, 모든 정보를 포함하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.70091815350909</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 심리학과와 스마트항만물류학과, 창업투자경영학과가 있습니다. 
+- 심리학과는 학과 신설로 인해 처음 모집을 시작합니다.
+- 스마트항만물류학과도 신설되어 모집에 참여하고 있습니다.
+- 창업투자경영학과 역시 새로운 학과로서 2024년부터 모집을 시작하게 되었습니다.
+이러한 변경사항은 동의대학교가 미래 산업 트렌드를 반영하여 교육 프로그램을 확장하고자 하는 의지를 보여주는 것으로 해석할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 전형요소 반영비율에 대한 정확한 정보를 제공하지 않고 있으며, 잘못된 정보(정확한 비율이 제공되지 않았다고 언급)와 관련된 내용을 포함하고 있습니다. 원본 텍스트에서 명확히 제시된 서류 70%, 면접 30%의 비율을 무시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 명확한 비율을 제시하고 있지만, 생성된 응답은 비율이 제공되지 않았다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 낮습니다. 원본 텍스트의 핵심 정보인 전형요소 반영비율에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트의 핵심 내용과의 연결이 부족하여 일관된 흐름이 떨어집니다. 정보가 분산되어 있어 논리적 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전형요소 반영비율에 대한 잘못된 정보를 제공합니다. 원본 텍스트의 정확한 비율을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않는 부분이 많습니다. 특히 전형요소 반영비율에 대한 정보가 부정확하여 의미 전달이 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보가 분산되어 있어 핵심 내용을 파악하기 어려울 수 있습니다. 명확한 답변이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.6494731835732165</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)에 대한 정확한 전형요소 반영비율 정보는 제공되지 않았습니다. 현재 데이터에서 확인 가능한 내용은 다음과 같습니다:
+- **나군 학생부종합(평생학습자전형), 나군 학생부종합(성인학습자(정원내)전형), 나군 학생부종합(성인학습자(정원외)전형)**의 전형요소 반영비율은 **"국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사교과 전 과목 석차등급 평균"**로 동일하게 반영됩니다.
+따라서 정확한 비율을 확인하려면 동의대학교의 공식 웹사이트를 방문하거나 해당 학교에 직접 문의하는 것이 가장 정확할 것입니다. "https://ipsi.deu.ac.kr/main.do" 링크를 통해 동의대학교의 공식 웹사이트로 이동하여 최신 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과를 언급하고 있으며, 수학 응시자에게 가산점을 부여하는 내용도 포함되어 있습니다. 그러나 "이 외에는 모든 학과에서 가산점이 없습니다."라는 부분은 사실과 다릅니다. 의료·보건·생활대학도 가산점을 적용받는 학과에 포함되기 때문입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 일부 일관성을 유지하고 있지만, 의료·보건·생활대학을 언급하지 않음으로써 일관성이 떨어집니다. 따라서 응답의 일관성은 다소 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 가산점 적용 학과에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 의료·보건·생활대학을 누락함으로써 완전한 일관성을 잃었습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 일부 정확한 정보를 포함하고 있지만, 의료·보건·생활대학을 포함하지 않음으로써 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있지만, 일부 정보의 누락으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 잘 맞습니다. 그러나 일부 정보의 누락으로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.8209298479683683</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 공과대학, ICT융합공과대학 모집단위입니다.
+가산점은 다음과 같습니다:
+- 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+이 외에는 모든 학과에서 가산점이 없습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적 반영 비율에 대한 구체적인 정보를 제공하고 있지만, 원본 텍스트에서 언급된 "100% 반영"이라는 사실을 왜곡하고 있습니다. 원본 텍스트는 수능 성적이 100% 반영된다고 명시하고 있으나, 생성된 응답은 각 과목의 비율을 나열하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 핵심 내용과 일치하지 않으며, 수능 성적 반영 방식에 대한 정보가 상충합니다. 원본 텍스트는 수능 성적이 100% 반영된다고 명시하고 있지만, 생성된 응답은 각 과목의 비율을 제시하여 혼란을 초래합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있으나, 원본 텍스트의 핵심 질문인 "100% 반영"이라는 점을 간과하고 있습니다. 그럼에도 불구하고, 수능 성적 반영에 대한 구체적인 정보를 제공하므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 모집단위에 대한 정보를 나열하고 있지만, 전체적으로 일관된 흐름이 부족합니다. 각 모집단위의 반영 비율이 나열되어 있지만, 원본 텍스트의 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 수능 성적이 100% 반영된다는 중요한 사실을 누락하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영에 대한 정보를 제공하지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6937623160207309</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **인문사회과학대학, 상경대학 모집단위**:
+  - 국어(화법과작문 또는 언어와매체) : 25%
+  - 수학(확률과통계 또는 미적분 또는 기하) : 25%
+  - 영어 : 25%
+  - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+- **의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위**:
+  - 국어(화법과작문 또는 언어와매체) : 25%
+  - 수학(확률과통계 또는 미적분 또는 기하) : 25%
+  - 영어 : 25%
+  - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) : 25%
+- **한의예과 수학(미적분/기하) 응시자**:
+  - 국어(화법과작문 또는 언어와매체) : 25%
+  - 수학(미적분 또는 기하) : 25%
+  - 영어 : 25%
+  - 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) : 25%
+- **한의예과 수학(확률과통계) 응시자**:
+  - 국어(화법과작문 또는 언어와매체) : 25%
+  - 수학(확률과통계) : 25%
+  - 영어 : 25%
+  - 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) : 25%
+- **예술디자인체육대학 모집단위(패션디자인학과 제외)**:
+  - 국어, 수학, 영어, 탐구 중 상위 3개 영역을 반영합니다.
+이러한 방식으로 수능 성적이 반영되며, 각 모집단위에 따라 가산점도 다르게 적용될 수 있습니다. 자세한 내용은 동의대학교 입시 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사의 날짜를 정확하게 언급하고 있으며, 추가적으로 레저스포츠학과와 태권도학과에서 실시된다는 정보를 포함하고 있습니다. 그러나, 원문에 명시된 정보 외에 추가된 내용이 있어 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일치하는 부분이 있지만, 레저스포츠학과와 태권도학과의 구체적인 언급이 원문에 포함되어 있지 않아 일관성이 떨어집니다. 따라서, 일부 일관성이 있지만 완전하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 깊으며, 실기고사 날짜와 관련된 추가 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나, 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 날짜와 관련된 정보는 정확하지만, 추가된 학과 정보는 원문에 명시되어 있지 않아 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 추가된 정보도 적절하게 보입니다. 그러나 원문에 없는 정보가 포함되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 정보가 추가되어 혼란을 줄 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.7019140586935974</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 다음과 같습니다:
+- 레저스포츠학과: 2024. 01. 16.(화)
+- 태권도학과: 2024. 01. 16.(화)
+이 날짜에 맞춰 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 새로운 학부가 신설되었다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 특정 학과가 제외된다고 명시하고 있는데, 생성된 응답은 전혀 다른 내용을 다루고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 특정 학과의 제외에 대한 정보인데, 생성된 응답은 새로운 학부의 신설에 대한 내용으로 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본 텍스트에서 제외된 학과에 대한 정보가 제공되었으나, 생성된 응답은 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.5151160579721417</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 "산업융합시스템공학부(산업ICT기술공학)"가 신설되어 모집이 중지되었습니다. 이 정보는 제공된 자료에서 확인할 수 있습니다. 더 궁금한 사항이 있으시다면 추가로 질문해 주세요.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 수능 최저기준이 적용되지 않는다는 사실이 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서로 모순되는 정보가 없습니다. 모든 내용이 동일한 주제를 다루고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제를 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하여 더욱 풍부한 내용을 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다. 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.870033677014195</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 각 전형별로 '수능최저기준 없음'이라는 항목이 기재되어 있습니다.
+따라서, 다군 수능(일반학생전형)에서도 수능 최저기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, "보육·가정상담학과"가 "아동학과"로 분리된 사실을 올바르게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보와 충돌하는 부분이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.515262073974029</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 분리되었습니다.
+이 정보는 제공된 데이터 중에서 확인하였습니다. 만약 더 자세한 내용이나 다른 정보가 필요하시다면, 관련 웹사이트를 방문해 보시는 것을 추천드립니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보(인터넷 접수 가능성 및 웹사이트 링크)를 제공하고 있습니다. 그러나 "2024년 1월 6일(토)까지입니다"라는 표현은 마감 시간을 명확히 하지 않아 약간의 모호함이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 일관되게 전달하고 있으며, 추가 정보도 일관성을 유지하고 있습니다. 다만, 마감일에 대한 표현이 약간 다르게 되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 추가적인 세부사항도 포함되어 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 마감일과 시간에 대한 정보는 정확하지만, "2024년 1월 6일(토)까지입니다"라는 표현이 마감 시간을 명확히 하지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7169174606710796</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 18시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 정보는 [http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com]를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도에 전형 요소 변화가 없다고 주장하지만, 원본 텍스트에서는 여러 전형의 구체적인 변화가 명시되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공하고 있습니다. 원본 텍스트는 전형 요소의 변화를 설명하고 있지만, 생성된 응답은 변화가 없다고 주장합니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 전형 요소의 변화를 다루고 있지만, 생성된 응답은 변화가 없다고 하여 주제를 벗어났습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관성을 유지하고 있지만, 원본 텍스트와의 관계에서 비논리적입니다. 원본 텍스트의 내용을 반영하지 않기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 전형 요소의 변화를 잘못 전달하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부정적입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.6514205981847695</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 없습니다. 모든 전형에서 학생부 교과, 출결, 서류, 면접, 실기, 수능 중 수능의 비중이 100%로 유지되고 있습니다.
+만약 더 자세한 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 왜곡하고 있습니다. 모든 모집단위에서 실기 비중이 100%라고 주장하고 있지만, 이는 사실과 다릅니다. 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기 비중이 70%라는 것이 정확한 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 실기 비중이 70%라고 명시하고 있지만, 생성된 응답은 이를 100%로 잘못 해석하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 가군 실기/실적 전형에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 잘못된 정보로 인해 일부 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 흐름이 방해받을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 잘못된 사실로 인해 논리적인 흐름이 약간 깨집니다. 실기 비중에 대한 설명이 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 실기 비중에 대한 정확한 정보를 제공하지 않으며, 잘못된 수치를 제시하고 있습니다. 이는 응답의 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성에서 큰 문제가 있으며, 이로 인해 전체적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미 전달이 부정확합니다. 따라서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6973685270461634</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 100%입니다. 
+레저스포츠학과와 태권도학과의 경우, 실기 비중이 70%이며, 수능 비중은 30%입니다.
+따라서 일반적으로는 실기 비중이 100%인 것으로 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 세부 전공 목록을 정확하게 반영하고 있으며, 추가적인 설명도 원본의 내용과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 전공의 구성과 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.8498314070492793</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과인 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 세 가지 전공은 학생들이 다양한 삶의 질 향상을 위한 기술과 비즈니스를 공부할 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 체육학과와 레저스포츠학과가 언급되었으나, 생성된 응답에서는 배드민턴과 축구라는 종목이 언급되어 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 학과와 생성된 응답의 종목이 서로 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 핵심 주제인 학과에 대한 정보와는 관련이 적습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수가 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않아서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6058909511311197</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사를 진행하는 학과는 배드민턴(남)과 축구(남)입니다. 
+- 배드민턴(남): 이 종목에서는 국가대표, 전국대회 입상 등의 경력이 있는 학생들이 실력을 인정받을 수 있습니다.
+- 축구(남): 이 종목에서도 국가대표나 청소년대표로 활동한 경력이 있는 학생들에게 높은 점수를 부여합니다.
+따라서, 배드민턴과 축구에 참여하고자 하는 학생들은 실기고사를 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 나열하고 있지만, '한의예과'가 포함되어 있다는 점은 원본 텍스트에 명시되어 있지 않습니다. 또한, '한의예과'에서 실기가 반영되지 않는다는 정보는 원본에 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, '한의예과'에 대한 추가 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트에 없는 정보를 추가함으로써 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 대한 질문에 잘 맞춰져 있으며, 관련 학과를 나열하고 있습니다. 그러나 '한의예과'에 대한 정보는 원본 텍스트와 관련이 없으므로 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 설명이 명확하게 연결되어 있습니다. 그러나 '한의예과'에 대한 추가 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: '한의예과'에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, 이로 인해 정확성이 떨어집니다. 원본 텍스트에 명시된 학과 외의 정보는 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 정확성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, '한의예과'에 대한 정보는 원본의 맥락과 맞지 않아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 추가된 정보로 인해 혼란을 줄 수 있습니다. 그러나 기본적인 내용은 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6995055317694707</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적 (일반학생전형)" 및 "나군 실기/실적 (일반학생전형)"은 다음과 같은 학과에 지원할 수 있습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 한의예과 (이 경우 실기/실적 위주 전형에서 실기가 반영되지 않음)
+5. 체육학과
+6. 경기지도학과
+특히, "디자인조형학과"와 "한의예과"는 실기가 포함된 전형으로 지원 가능합니다. 하지만 "한의예과"에서는 실기가 반영되지 않는 점을 유의해야 합니다.
+더 자세한 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답에서 "스마트업창업투자학"이라는 전공이 언급되었으나, 원본 텍스트에서는 "스타트업창업투자학"으로 명시되어 있어 사실과 다릅니다. 또한, 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않아 추가된 정보로 인해 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 전공 목록 중 일부는 일치하지만, "스마트업창업투자학"이라는 전공이 원본과 다르며, 추가된 모집 인원 정보는 원본과 일치하지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 라이프융합학부의 전공에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, "스마트업창업투자학"이라는 표현이 원본과 다르기 때문에 약간의 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록과 추가 정보가 잘 연결되어 있습니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 전공 이름의 오류와 추가된 모집 인원 정보로 인해 정확성이 떨어집니다. 원본 텍스트의 사실을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성이 높고 유창하지만, 사실성과 정확성에서 일부 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 전공 이름의 오류로 인해 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우나, 전공 이름의 차이로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.834222055131753</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공하고 있습니다:
+1. 스마트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이 정보는 신설된 학과에 대한 내용이며, 현재 정원 내 모집 인원은 20명입니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 특수목적고등학교 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 과학고, 국제고, 외국어고, 예술고, 체육고에 대한 추가 정보는 원문에 명시되어 있지 않으므로 일부 사실이 추가되거나 왜곡된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 특정 전형에 대한 지원 가능 여부에 대한 정보가 원문과 다르게 제시되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있지만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일부 일치하지만, 특정 전형에 대한 지원 가능 여부에 대한 정보가 정확하지 않거나 추가된 내용이 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 관련성이 높고, 읽기 쉬우며, 논리적으로 잘 구성되어 있지만, 사실성과 정확성에서 일부 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원문과 일치하지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있지만, 일부 추가 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6717156141781254</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생인 경우 동의대학교 일반학생전형으로 지원이 가능합니다. 
+특수목적고등학교 중에서 과학고, 국제고, 외국어고는 모든 전형에서 지원이 가능하지만, 예술고와 체육고는 일부 전형에서는 지원이 불가능합니다.
+따라서, 동의대학교의 나군 일반학생전형에서는 특수목적고등학교 학생 모두가 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 잘못된 정보를 제공합니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시하고 있지만, 생성된 응답은 경영학과 - 교직이 가장 많은 인원을 모집한다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 생성된 응답에서 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요구하는 질문에 대한 직접적인 답변을 제공하지 않으며, 경영학과에 대한 정보로 주제를 벗어나고 있습니다. 그러나 모집 인원에 대한 언급이 있어 일부 관련성이 있지만, 주제에서 벗어난 정보가 많습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원문과의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 정보가 주제와 맞지 않기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 모집 인원과 학과에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다. 주제와 관련된 정보가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 내용의 정확성과 관련성이 떨어져서 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6076413440793244</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 단순히 정원외 모집인원만으로 판단하면, '경영학과 - 교직'이 6명을 모집하며 가장 많은 인원을 모집하고 있습니다. 그러나 전체적인 모집인원을 고려하지 않으면 완전한 판단이 어렵습니다. 자세한 정보는 공식 홈페이지를 확인하시거나 https://ipsi. deu. ac. kr/main. do 링크를 참조해주세요.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원이 가능하다고 주장하고 있으며, 이는 원문과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 지원이 불가능하다고 명시하고 있지만, 응답에서는 지원이 가능하다고 하여 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공하는 정보와 상충합니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다. 그러나 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로도 원문과의 불일치로 인해 적절하지 않습니다. 원문에서의 의미를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 신뢰성에 문제가 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.6759088759255089</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교에서 농어촌학생전형을 통해 지원할 수 있습니다. 
+특수목적고등학교 중에서도 과학고, 국제고, 외국어고는 지원 가능하지만, 예술고와 체육고는 지원이 불가능합니다.
+따라서, 지원 가능한 특수목적고등학교는 과학고, 국제고, 외국어고입니다. 
+자세한 내용은 동의대학교 입시 홈페이지를 확인하시거나, 대학에 직접 문의해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정보로 시작하지만, 소프트웨어공학부의 평균 성적에 대한 질문에 대한 답변이 아닙니다. 원본 텍스트는 소프트웨어공학부의 평균 성적에 대한 정보가 없다고 명시하고 있으며, 생성된 응답은 관련 없는 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 소프트웨어융합학과에 대한 정보로 전환되면서 원본의 주제를 벗어났습니다. 이는 원본 텍스트와의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 소프트웨어공학부의 평균 성적에 대한 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 주제와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어공학부의 평균 성적에 대한 질문에 대한 정확한 답변이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제와 관련이 없습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 주제와의 관련성이 떨어져 전체적인 이해에는 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5889842141851082</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 경우, 정원 내 모집 인원이 표시되어 있지 않으므로 정확한 지원자 수와 경쟁률 등을 알 수 없습니다. 그러나 제공된 데이터에서 다른 학과들의 평균 성적을 확인할 수 있습니다.
+특정 학과의 평균 성적에 대한 정보를 원하신다면, 해당 학과의 "국어 + 수학 + 탐구(2개)  (가산점 포함) 표준 변환 점수 합" 또는 "수능 4개 영역  (가산점 포함) 표준 변환 점수 합"의 평균 값을 참조하실 수 있습니다.
+예를 들어, "국어 + 수학 + 탐구(2개)  (가산점 포함) 표준 변환 점수 합"의 평균 값은 271.64입니다. 이는 소프트웨어공학부와 유사한 수준의 성적을 가진 지원자들이 많이 지원했음을 의미할 수 있습니다.
+만약 특정 학과의 정확한 평균 성적을 알고 싶으시다면, 해당 학과에 대한 자세한 정보를 제공해 주시면 더 정확한 답변을 드릴 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 "소프트웨어융합학과"라는 용어는 원문에 언급된 "소프트웨어공학부"와 다르므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일관성을 유지하려고 하지만, "소프트웨어융합학과"라는 다른 학과명을 사용함으로써 일관성이 떨어집니다. 원문에서 언급된 학과와 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 요청한 정보와 관련이 있으며, 해당 정보를 찾기 위한 방법을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "deu"와 "ac" 사이의 공백이 불필요하게 삽입되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 문맥 차이로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 정확하지만, 학과명에서의 차이로 인해 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 학과명에서의 차이로 인해 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 다만, 약간의 문맥 차이로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.7221756792159518</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어융합학과의 최초 합격자 평균 성적 정보가 제공된 데이터 내에서는 확인할 수 없습니다. 해당 정보를 찾기 위해서는 동의대학교 입학처 웹사이트 또는 관련 문서를 참조해 주시면 감사하겠습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 "충원 합격자 2차 발표"와 "충원 합격자 3차 이후 발표"에 대한 정보가 누락되었습니다. 또한, 등록금 납부와 관련된 추가 정보가 포함되어 있어 원본 텍스트와의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가적인 세부사항이 포함되어 있어 일관성이 떨어집니다. 특히, 등록금 납부와 관련된 내용은 원본 텍스트에 없던 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 등록금 납부 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 정보의 흐름이 논리적입니다. 그러나 원본 텍스트와의 차이로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 중요한 세부사항이 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있지만, 원본 텍스트와의 차이로 인해 일부 점수가 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 차이로 인해 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8084999309255546</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표 일정은 다음과 같습니다:
+1. **최초 합격자 발표 및 등록금 납부**:
+   - **일정**: 2024년 2월 2일(금) 14:00
+   - **비고**: 
+     - *발표*: 홈페이지에서 개별 조회 가능합니다.
+     - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+     - *등록장소*: 학교 지정은행(등록금 고지서에 기재된 정보를 참고하세요).
+2. **충원 합격자 발표 및 등록금 납부**:
+   - **1차 충원 합격자 발표**: 2024년 2월 14일(수) 09:00
+     - **비고**: 
+       - *발표*: 홈페이지에서 개별 조회 가능합니다.
+       - *고지서 교부*: 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+       - *등록장소*: 학교 지정은행(등록금 고지서에 기재된 정보를 참고하세요).
+   - **1차 충원 합격자 등록**: 2024년 2월 14일(수) 09:00~16:00
+이상의 일정을 참고하시면 됩니다. 자세한 내용은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 면접고사 일정이 2024년 1월 20일로 명시되어 있지만, 생성된 응답에서는 2024년 2월 7일부터 13일까지의 등록금 납부 일정에 대한 내용만 포함되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 면접고사 일정과 생성된 응답의 등록금 납부 일정은 서로 상충합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 면접고사 일정에 대한 정보인데, 생성된 응답은 등록금 납부에 대한 내용으로 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본 텍스트와 관련이 없기 때문에 플루언시 점수는 높지만, 다른 평가 요소에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 따라서 중간 점수를 부여합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 다른 내용을 다루고 있습니다. 따라서 의미 적합성 점수는 매우 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 내용이 원본 텍스트와 관련이 없기 때문에 이해 가능성 점수는 높지만 다른 평가 요소에 영향을 미칩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3837467818709183</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>2024년 2월 7일(수)부터 13일(화)까지 등록금 납부를 원하는 합격자들은 홈페이지에서 개별 조회하거나 입학관리팀에서 고지서를 수령한 후, 등록장소로 지정은행에 가셔야 합니다. 등록장소는 학교 지정은행이며, 등록금 고지서에 기재되어 있습니다.
+따라서 면접고사는 2024년 2월 7일(수)부터 13일(화)까지 홈페이지에서 개별 조회하거나 입학관리팀에서 고지서를 수령한 후 지정은행으로 이동하여 등록을 진행하셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 반영하고 있지만, "2024학년도 한의예과에 대한 최저학력기준 정보가 제공된 문서 내에서는 확인할 수 없습니다."라는 문구는 다소 모호하게 느껴질 수 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원문과 일치하는 부분이 있지만, "정식 최저학력 기준은 아직 공개되지 않았거나"라는 부분은 원문에서 명확히 언급되지 않은 내용입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 깊으며, 최저학력 기준에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있어 4점으로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 4점으로 평가합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원문에서 제공된 정보와 일치하며, 사실적으로 정확합니다. 다만, 추가적인 정보가 포함되어 있어 약간의 불확실성이 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 여러 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 좋은 점수를 받았습니다. 그러나 일부 부분에서 개선의 여지가 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원문의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 다소 모호할 수 있어 4점으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 4점으로 평가합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5505643306237284</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>2024학년도 한의예과에 대한 최저학력기준 정보가 제공된 문서 내에서는 확인할 수 없습니다. 
+현재 문서에는 "수능최저기준 없음"이라는 문구만 있습니다. 따라서, 2024학년도 한의예과의 정식 최저학력 기준은 아직 공개되지 않았거나, 해당 정보가 포함되어 있지 않습니다.
+더 자세한 정보를 얻으시려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 해석하고 있습니다. 응답에서는 정시 전형에 대한 수능 최저학력 기준이 포함되어 있지 않다고 언급하고 있지만, 이는 사실과 다릅니다. 동의대학교는 수능 최저학력 기준이 없다고 명시되어 있으므로, 이 부분에서 명백한 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 정시 전형에 대한 수능 최저학력 기준이 설정되어 있다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충하므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저학력 기준에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 사실을 잘못 해석하고 있습니다. 그러나 추가적인 정보와 안내를 제공하여 관련성을 높이고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 주제를 유지하지 못하고 있습니다. 정보가 분산되어 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 사실을 잘못 전달하고 있습니다. 원본 텍스트의 내용을 정확하게 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 핵심 사실을 잘못 해석하고 있어 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5370328342198097</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시 전형으로 지원할 때 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 정시 전형에 대한 수능 최저학력 기준이 포함되어 있지 않습니다. 정시 전형의 경우 일반적으로 수능 최저학력 기준이 설정되는데, 이는 해당 대학이나 학과에서 정한 것입니다.
+위 정보에서는 나군 실기/실적(경기실적우수자전형) 및 평생학습자전형에 대한 내용만 포함되어 있으므로 정시 전형의 수능 최저학력 기준을 확인하려면 대학 홈페이지나 입학처에 직접 문의하시는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크로 이동하여 확인해 보시거나, 해당 대학 입학처에 직접 문의하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원합격자 발표일인 2024년 2월 15일(목) 09:00을 정확하게 언급하고 있으며, 이후 추가적인 발표가 있을 것이라는 내용도 포함되어 있습니다. 그러나 1차 발표와 3차 이후 발표에 대한 정보는 누락되어 있어 완전한 사실성을 갖추지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 발표 일정과 관련된 정보는 일치하지만, 1차 및 3차 발표 일정에 대한 언급이 없어서 일관성이 떨어집니다. 전체 일정에 대한 정보가 부족하여 일관성이 부족하다고 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 주제와 잘 맞아떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있는 부분이 있어 완벽한 유창성은 아닙니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 전체 일정에 대한 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2차 발표 일정에 대한 정확한 정보를 제공하지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 맥락에 적합한 내용을 포함하고 있습니다. 다만, 전체 일정을 포함하지 않아 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 정보의 누락으로 인해 전체적인 이해가 다소 제한될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7722472365894204</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 충원합격자 발표가 이루어집니다. 이날 이후로도 추가적인 충원합격자가 발표될 예정입니다. 자세한 일정은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 추가합격자 발표에 대한 날짜가 제공되지 않았다고 주장하지만, 원본 텍스트에는 1차, 2차, 3차 이후의 충원합격자 발표 일정이 명확히 기재되어 있습니다. 따라서 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충합니다. 원본 텍스트는 구체적인 날짜를 제공하는 반면, 생성된 응답은 날짜가 없다고 주장하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주된 질문인 추가합격자 발표 일정에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 주장을 하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.4854838477217013</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표는 일정한 날짜가 아직 제공되지 않았습니다. 현재 정보에서는 "합격자 발표 및 등록금 납부"의 세부 일정이 주어졌지만, 추가합격자 발표에 대한 정확한 날짜는 포함되어 있지 않습니다.
+추가합격자 발표의 예상일자는 학교 측에서 공지될 때까지 알 수 없습니다. 따라서 최신 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문하거나 관련 부서에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 추가 모집에 대한 명확한 내용을 확인할 수 없다고 언급하고 있지만, 원본 텍스트에서는 추가 모집이 이루어진다고 명시하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본에서 제공하는 정보와 상충하는 내용을 포함하고 있습니다. 이는 일관성 점수를 낮춥니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 정보의 정확성이 떨어지므로 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다른 언어로 혼합되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 다소 부족하며, 원본 텍스트와의 연결이 약합니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 정보의 정확성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 다른 언어의 혼합으로 인해 일부 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4685921061810417</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 추가 모집에 대한 명확한 내용은 확인되지 않았습니다. 특정 학과나 전형에서의 추가 모집 여부는 일반적으로 공지가 있을 때才知道到目前为止提供的信息中没有明确提到是否有额外招生。特定专业的额外招生通常会在官方公告中有说明。如果您想了解某个专业或类型的额外招生情况，请访问学校官网或联系相关部门以获取最新信息。
+https://ipsi.deu.ac.kr/main.do
+您可以访问该网址查看最新的招生信息。</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 평생학습자전형에 대한 정보가 아닌 다른 전형에 대한 내용을 포함하고 있으며, 제출서류와 평가 요소에 대한 정보가 원본 텍스트와 일치하지 않습니다. 
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 다른 전형에 대한 정보가 포함되어 있어 혼란을 초래합니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하려고 하지만, 내용이 원본 텍스트와 관련이 적고, 다른 전형에 대한 정보가 포함되어 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성 부족으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3  
+   - 응답의 내용이 서로 연결되어 있지 않고, 원본 텍스트와의 연관성이 부족하여 일관된 주제를 유지하지 못합니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보가 포함되어 있습니다. 
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 낮은 점수를 기록하고 있으며, 사실성, 일관성, 정확성 모두에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 어느 정도 적절하지만, 원본 텍스트의 맥락과는 맞지 않는 정보가 포함되어 있어 적절성에 문제가 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 일관성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6024174637876719</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 성인 학습자를 대상으로 한 입학 전형입니다. 이전형에서는 재직자전형과 함께 평생학습자의 다양한 경험과 역량을 종합적으로 평가하여 지원자를 선발합니다.
+제출서류는 학력서류와 지원자격서류로 구분되며, 학력서류에는 고교 학교생활기록부 1부를 제출해야 합니다. 지원자격서류는 4대 보험 가입자인 경우 건강보험자격득실확인서를, 4대 보험 미가입자 또는 창업 및 자영업자는 사업자등록증명원 또는 폐업사실증명원을 제출해야 합니다. 농업, 수산업 등의 1차 산업체 종사자는 국가·지방자치단체가 발급하는 공적증명서를 제출해야 하며, 군 경력자는 주민등록초본을 제출해야 합니다.
+서류평가 영역은 공동체역량, 학업역량, 전공적합성으로 나뉘며 각 영역별로 1등급부터 5등급까지의 점수를 부여합니다. 면접평가는 개별면접 형식으로 진행되며, 평가요소에는 지원동기 및 학업계획, 문제해결능력, 진로정보 탐색능력 등이 포함됩니다.
+부정적 사례로는 학교생활기록부 작성 과정에서의 부정행위, 동일 내용의 의도적인 반복 기재, 과장된 내용 기재, 학급/단체 단위의 내용 기재 등이 있습니다. 이러한 사례들은 서류평가에서 배제되거나 점수에 영향을 미칠 수 있습니다.
+자세한 정보는 "https://ipsi. deu. ac. kr/main. do"를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용 범위와 재직기간 산정에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 전혀 관련이 없으며, 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 부적절하여 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 모든 평가 기준에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 주제가 다르기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.6600532722724448</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가 또는 지방자치단체 및 공공단체 (소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+2. 재직기간 산정:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙 서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간을 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고, 관련된 장소에 대한 언급이 없다고 주장하고 있습니다. 그러나 원본 텍스트에는 입실시간과 대기실에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 구체적인 정보를 무시하고 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 언급이 부족합니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족함을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋납니다. 따라서 의미적 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.3879174673276273</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 만약 실기고사를 치르려면, 해당 단과대학이나 학교에서 공지한 장소로 이동해야 합니다. 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않고 있으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본 텍스트에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 품질이 낮으며, 사실성, 일관성, 정확성에서 모두 부족합니다. 따라서 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트와의 관련성이 떨어져 의미가 약해집니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 전달됩니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3265382781874136</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 체육학과의 실기고사와 관련된 내용이 없습니다. "체육학과의 실기고사는 어디로 가면 되나요?"라는 질문에 대한 답변을 찾기 위해서는, 해당 대학이나 학교의 공식 웹사이트를 방문하여 자세한 정보를 확인하시거나, "https://ipsi. deu. ac. kr/main. do" 주소로 접속하여 더 많은 정보를 얻으시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시하고 있지만, 생성된 응답에서는 개별 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통보가 이루어지지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 통보가 이루어진다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 포함하고 있지만, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 전화 통보에 대한 잘못된 언급이 주제를 흐리게 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 일관되지만, 잘못된 정보로 인해 논리적인 흐름이 약해집니다. 전화 통보에 대한 잘못된 언급이 응답의 일관성을 해치고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다르며, 사실과 일치하지 않는 내용을 포함하고 있습니다. 전화 통보에 대한 잘못된 정보는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 전화 통보에 대한 잘못된 언급은 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6859284590989444</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>2024년 수시 충원 합격자 발표 후에는 개별 전화 통보를 받으실 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인하실 수 있습니다.
+만약 자세한 정보가 필요하시거나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경찰행정학과의 수시모집 결과에 대한 정보가 포함되어 있지 않다는 원문과 상충하는 내용을 포함하고 있습니다. 특히, 모집 인원과 지원 자격에 대한 구체적인 정보는 원문에서 제공되지 않았으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수시모집 결과에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 구체적인 모집 인원과 지원 자격을 제시하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있지만, 원문이 명시적으로 수시모집 결과에 대한 정보가 없다고 언급하고 있기 때문에, 제공된 정보는 원문과 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서는 불필요한 반복이 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 원문과의 관계를 명확히 하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공되지 않은 정보를 포함하고 있으며, 이는 사실과 다릅니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문이 명시적으로 수시모집 결과에 대한 정보가 없다고 언급하고 있기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.6841999389533884</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 정원 내 모집 인원은 70명이며, 지원 자격은 다음과 같습니다:
+- **모집군**: 가군 (수능 일반학생전형)
+- **정원 내 모집인원**: 70명
+- **고교 유형별 지원 자격**:
+  - 일반고: 지원 가능
+  - 자율고: 지원 가능
+  - 특수목적고: 과학고, 국제고, 외국어고, 예술고, 체육고, 마이스터고 모두 지원 가능
+  - 특성화고: 특성(직업), 특성(대안) 모두 지원 가능
+  - 영재학교: 지원 가능
+  - 기타: 학력인정고, 방송통신고, 각종학교 모두 지원 가능
+  - 검정고시: 지원 가능
+  - 외국고: 지원 가능
+2023학년도 경찰행정학과의 수시모집 결과는 정확한 데이터가 제공되지 않았습니다. 더 자세한 정보를 얻으려면 해당 대학의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 학교 관계자에게 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문 내용을 왜곡하고 있습니다. 일부 대학에서 수능 없이 지원할 수 있는 전형이 있다고 언급했지만, 이는 원문에서 명시된 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 말하고 있는데, 생성된 응답은 수능 없이 지원할 수 있는 방법을 제시하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 정보가 포함되어 있습니다. 원문 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편입니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 주제에 대한 명확한 구조가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 수능에 응시하지 않으면 지원할 수 없다는 원문 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 적절하지 않은 부분이 있습니다. 원문 질문에 대한 직접적인 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 복잡한 문장 구조로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5322127753701513</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>는행에서의 정시 모집은 수능을 필수로 응시해야 하는 것이 일반적입니다. 하지만 일부 대학에서는 수능 없이 실기 또는 실적을 바탕으로 지원하는 전형을 운영하고 있습니다.
+특히, "나군"에 해당하는 학생부종합전형에서는 수능을 제외한 다른 평가 요소를 통해 지원할 수 있습니다. 예를 들어:
+1. **학생부 종합전형**: 이는 학생부 교과 성적, 진로활동 등 다양한 평가 요소를 바탕으로 지원합니다.
+2. **실기/실적 위주 전형**: 특정 분야의 실력을 기반으로 지원할 수 있는 전형이 있습니다.
+따라서, 정시에 수능을 응시하지 않아도, 학생부 종합전형이나 실기/실적 위주의 전형을 통해 지원할 수는 있습니다. 하지만 이와 같은 전형은 대학마다 다르므로, 각 대학의 모집요강을 꼼꼼히 확인하는 것이 중요합니다.
+더 자세한 정보를 얻으시려면, 해당 대학의 웹사이트나 입학처에 문의하시는 것을 추천드립니다. (https://ipsi. deu. ac. kr/main. do)</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 모든 고등학교 졸업생이 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반적으로 불가능하다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있으나, 생성된 응답은 이를 부정하고 다른 전형에 대한 정보를 제공합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주된 내용이 원문과 다르기 때문에 관련성이 떨어집니다. 원문이 정시 지원 가능성에 대한 질문에 대한 답변인 반면, 생성된 응답은 다른 전형에 대한 정보로 초점이 이동했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 약해 논리적인 흐름이 다소 부족합니다. 원문과의 관계가 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 정반대의 내용을 담고 있습니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 상충되는 내용을 포함하고 있어 적절하지 않습니다. 원문의 맥락을 무시하고 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.7252461809353969</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 고등학교 졸업 후 10년이 지났다면, 일반적으로 정시 모집에 지원하는 것은 불가능합니다. 대학입학전형은 각 학교에서 정해진 기준을 따르기 때문에, 대부분의 경우 고등학교 졸업 후 4년 이내에 지원해야 합니다.
+하지만 나군 전형 중 일부는 평생학습자전형이나 성인학습자전형 등으로 대학입학이 가능합니다. 이러한 전형은 일반적으로 정시 모집과는 다르게 특정 기준을 충족하면 지원할 수 있습니다. 예를 들어, 재직자전형에서는 3년 이상의 재직 기간을 충족해야 합니다.
+따라서, 고등학교 졸업 후 10년이 지났다면 나군에서 평생학습자전형이나 성인학습자전형 등을 통해 지원할 수 있는지 확인해 보시는 것이 좋습니다. 자세한 내용은 https://ipsi. deu. ac. kr/main. do를 참조하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 비고 내용이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.8358878636515412</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024년 1월 2일 (화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감일 18시까지
+   - 비고: 원서 접수 사이트는 http://ipsi. deu. ac. kr 또는 http://www. uwayapply. com 입니다.
+3. **서류 제출**:
+   - 날짜: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감일 17시까지 도착
+   - 비고: 서류 제출 대상은 전형별 세부 안내를 참조해야 하며, 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 발송합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**:
+   - 날짜: 2024년 1월 16일 (화)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 조회 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**:
+   - 날짜: 2024년 1월 17일 (수)
+   - 비고: 대기실 및 입실시간 안내는 2024년 1월 12일 (금) 14시 00분 이후에 입학안내 홈페이지에서 조회 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시 00분
+     - 비고: * 발표는 홈페이지에서 개별 조회 가능합니다.
+           * 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+           * 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내
+     - 비고: * 발표는 홈페이지에서 개별 조회 가능합니다.
+           * 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+           * 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 발표: 2024년 2월 14일 (수) 9시 00분
+     - 비고: * 발표는 홈페이지에서 개별 조회 가능합니다.
+           * 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+           * 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 1차 등록: 2024년 2월 14일 (수) 9시 00분 ~ 16시 00분
+     - 비고: * 발표는 홈페이지에서 개별 조회 가능합니다.
+           * 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+           * 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+   - 충원 합격자 2차 발표: 2024년 2월 15일 (목) 9시 00분
+     - 비고: * 발표는 홈페이지에서 개별 조회 가능합니다.
+           * 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다.
+           * 등록장소는 학교 지정은행(등록금 고지서에 기재)입니다.
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 왜곡이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.9304696268991853</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고** (2024년 1월 2일)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)** (2024년 1월 3일 ~ 6일, 마감일 18시까지)
+   - 원서 접수는 인터넷을 통해 가능하며, 접수 사이트 주소는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (제출서류가 있는 경우)** (2024년 1월 3일 ~ 12일, 마감일 17시까지 도착)
+   - 서류 제출 대상은 전형별 세부 안내를 참조해야 하며, 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 제출할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)** (2024년 1월 16일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)** (2024년 1월 17일)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부 (최초 합격자)** (2024년 2월 2일 금요일 14:00)
+   - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+7. **합격자 발표 및 등록금 납부 (최초 합격자 등록)** (2024년 2월 7일 ~ 13일)
+   - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+8. **합격자 발표 및 등록금 납부 (충원 합격자 1차)** (2024년 2월 14일)
+   - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+9. **합격자 발표 및 등록금 납부 (충원 합격자 1차 등록)** (2024년 2월 14일)
+   - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+10. **합격자 발표 및 등록금 납부 (충원 합격자 2차)** (2024년 2월 15일)
+    - 홈페이지에서 개별 조회 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+이 일정을 참고하여 원하는 학과에 지원하시기 바랍니다. 자세한 내용은 [입학안내 홈페이지](http://ipsi.deu.ac.kr)를 참조하시거나 직접 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명백히 무시하고 있습니다. 수능 미응시자는 지원이 불가능하다는 원문과 상반된 내용을 담고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 전형에 대한 정보를 제공하고 있으나, 원문에서 요구하는 수능 성적의 필요성과 수능 미응시자의 지원 불가능성을 무시하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계에서 논리적 흐름이 깨져 있습니다. 원문과의 연결이 부족하여 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 미응시자가 지원할 수 없다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 수능 미응시자의 지원 가능성에 대한 잘못된 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6300646989626222</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 미응시자도 지원이 가능한 전형으로는 "학생부종합전형"이 있습니다. 이 전형에서는 수능 점수가 요구되지 않으며, 주로 학생부 내용과 면접을 통해 평가됩니다.
+특히, 2024학년도에는 "학생부종합(조기취업형계약학과전형)"과 "학생부종합(평생학습자전형)"이 신설되어 수능 미응시자도 지원 가능하게 되었습니다. 이들 전형은 학생부 내용을 중점적으로 평가하며, 면접에서도 학생의 역량과 적합성을 판단합니다.
+따라서 수능 미응시자도 동의대학교에서 다양한 전형을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 전자공학과의 충원 합격자가 34명이라고 언급하고 있지만, 원본 텍스트에서는 전년도 충원 합격자가 36명이라고 명시되어 있습니다. 또한, "24학년도 데이터가 제공되지 않았습니다."라는 문장은 원본 텍스트와 관련이 없으며, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 특정 숫자를 제시하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 일부 정보가 부정확하여 완전한 관련성을 가지지 않습니다. 그러나 웹사이트 링크를 언급하여 추가 정보를 찾도록 안내하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관된 메시지를 전달하지 못하고 있습니다. 정보의 연결성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 전자공학과의 충원 합격자 수에 대한 잘못된 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7110688252811084</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>24학년도 데이터가 제공되지 않았습니다. 현재 정보에서는 전자공학과의 충원 합격자는 34명이며, 이는 2024학년도 모집인원(34명)과 일치합니다. 전년도에 대한 자세한 정보를 얻기 위해서는 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와 관련된 사실을 왜곡하고 있습니다. 원본 텍스트에 명시된 전화번호가 포함되어 있지 않기 때문에 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 전화번호에 대한 정보가 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용과 상충하므로 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처의 전화번호를 묻는 질문에 대한 직접적인 답변이 아니며, 관련 정보가 부족합니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있는 방법을 제시하고 있어 일부 관련성은 있지만, 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 일관성이 떨어집니다. 전화번호에 대한 언급이 없기 때문에 주제와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호에 대한 정보가 전혀 포함되어 있지 않습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 전화번호에 대한 정보가 없다고 주장하고 있습니다. 그러나 웹사이트 링크를 제공하여 추가 정보를 찾을 수 있는 방법을 제시하고 있어 일부 적절성은 있지만, 전반적으로는 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 한국어 사용자에게는 중국어로 작성되어 있어 이해하기 어려울 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.6296049245542916</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学入学处的电话号码。根据您提供的内容，似乎主要是关于招生计划、考试安排、成绩计算方法等详细信息，并未包含联系方式如电话号码。
+如果您需要查询东义大学入学处的具体联系电话，建议直接访问其官方网站或联系学校的相关部门获取准确信息。也可以通过以下链接进行咨询：https://ipsi. deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격 사실이 확인된다고 주장하지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격 사실이 확인된다고 주장하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 그러나 합격 여부 확인 방법에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 제시되어 있습니다. 그러나 원문과의 연결이 약해져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 상충되는 내용을 포함하고 있어 정확성 점수가 낮습니다. 전화 통화가 되지 않으면 등록 포기자로 처리된다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원문과의 사실적 일치가 부족하고, 일관성 또한 떨어지며, 정확성 문제로 인해 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 연결이 약해져서 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5127782741575557</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격 사실이 확인됩니다. 이는 개별 전화 통보 후에도 홈페이지에서 개별 조회를 통해 합격 여부를 확인할 수 있기 때문입니다. 또한 고지서는 홈페이지에서 출력하거나 입학관리팀에서 직접 수령 가능하므로, 이를 통해 정식으로 합격자로 인정받을 수 있습니다.
+따라서 전화 통화가 되지 않더라도, 다음 절차에 따라 합격 여부를 확인할 수 있습니다:
+1. 홈페이지에서 개별 조회
+2. 고지서 출력 또는 입학관리팀 방문
+이러한 방법들을 통해 합격 사실을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류를 정확하게 나열하고 있습니다. 그러나 "정원외 동점자 처리기준" 부분은 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일치하지만, 추가된 정보(정원외 동점자 처리기준)가 원본 텍스트에 없기 때문에 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 맥락을 약간 벗어나게 합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.720714445715283</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌 학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 먼저, '6년 과정'과 '12년 과정'의 차이점을 알아보겠습니다.
+### 6년 과정
+- **가족관계증명서**: 1부
+- **주민등록초본**: 지원자 본인, 부모 각 1부 (총 3부)
+- **중학교 학교생활기록부**: 1부
+- **고등학교 학교생활기록부**: 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- **사망한 부 또는 모의 기본증명서**: 사망한 부 또는 모의 경우, 1부 (기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부를 추가로 제출)
+- **친권이 있는 부 또는 모의 혼인관계증명서(상세)**: 친권이 있는 부 또는 모의 경우, 1부 (본인의 기본증명서 1부를 추가로 제출)
+### 12년 과정
+- **주민등록초본**: 1부
+- **초등학교 학교생활기록부**: 1부
+- **중학교 학교생활기록부**: 1부
+- **고등학교 학교생활기록부**: 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+- **중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능**
+이 외에 추가로 제출해야 할 서류가 있습니다.
+### 정원외 동점자 처리기준
+- **국어**: 1위
+- **수학**: 2위
+- **영어**: 3위
+따라서, 농어촌 학생전형으로 지원 시 필요한 서류는 위와 같습니다. 자세한 내용은 해당 대학의 공식 웹사이트를 참조하시거나 문의해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 서류를 정확하게 나열하고 있지만, "교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급"이라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 서류를 나열하고 있으나, 추가된 발급 방법에 대한 정보가 원본과 일치하지 않아서 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류 목록을 정확히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보를 포함하고 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원본 텍스트와의 일치성에서 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8481559943643888</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형에서 제출해야하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류들이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 언급하지 않고, 저소득 기회균등 전형에 대한 정보가 없다고만 언급하고 있습니다. 이는 원문에서 명시된 사실과 일치하지 않으며, 정보의 정확성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 내용을 포함하고 있습니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명확히 언급하고 있지만, 생성된 응답은 그러한 내용을 부정확하게 전달하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 기회균등 전형의 존재 여부에 대한 명확한 답변이 부족하여 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 연결성이 부족하여 일관성이 떨어집니다. 원문에서의 명확한 사실을 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않으며, 기회균등 전형의 존재 여부에 대한 정확한 정보를 제공하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 정보의 정확성, 일관성, 관련성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 의미적으로 원문에서 전달하고자 하는 바와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 한국어 사용자에게는 언어적 장벽이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5098219942529102</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到关于正取生（정시모집）中的低收入机会均等类型招生计划。根据现有内容，没有相关信息表明是否会招收此类学生。如果您想了解这方面的详细情况，建议访问“https://ipsi. deu. ac. kr/main. do”网站获取最新和最准确的信息。
+如果有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 최저등급에 대한 절사 여부에 대한 정보가 포함되어 있지 않다는 원문 내용을 무시하고, 2.5등급이 절사되지 않는다고 단정짓고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문에서 언급된 "구체적인 절사 여부에 대한 정보가 포함되어 있지 않다"는 내용을 무시하고, 2.5등급이 절사되지 않는다고 주장하고 있습니다. 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으나, 원문에서 요청한 정보와는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 내용이지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 떨어집니다. 원문에서 명시된 정보와 다르게 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 원문과의 불일치가 많아 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문과의 의미적 일치가 부족하여 적절성에서 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6103930803181987</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급이 나오더라도 절사하여 3등급으로 반영하지 않습니다. 수능 사탐 2과목 평균산출 시 2.5 등급은 그대로 2.5 등급으로 반영됩니다.
+수능 사탐 2과목 평균산출 방법은 다음과 같습니다:
+1. 4개 영역(국어, 수학, 영어, 탐구) 중 표준점수 및 등급점수 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2
+2. 만약 탐구 영역에서 2과목이 평균산출되는 경우, 그 두 과목의 등급을 평균하여 반영합니다.
+따라서 2.5등급이 나오더라도 그대로 반영되며 절사되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 발표 차수와 날짜에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8573277350935568</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다.
+1. **1차 발표**: 2024년 2월 14일 (수) 09:00에 진행됩니다.
+2. **2차 발표**: 2024년 2월 15일 (목) 09:00에 진행됩니다.
+3. **3차 이후 발표**: 2024년 2월 15일 (목) 19:00부터 2024년 2월 20일 (화) 18시까지 개별 전화 통보로 이루어집니다.
+이와 같이 총 3차에 걸쳐 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 구체적인 기준 점수나 지원 자격 조건이 없다고 언급하고 있습니다. 그러나 원본 텍스트에서는 수능 4개 영역 등급이 4.6점일 경우 최초 합격자와 최종 등록자의 평균을 상회하는 수준이라고 설명하고 있어, 이 정보가 누락되었습니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 정시 전형의 가능성에 대한 판단을 어렵다고 하여 원본의 긍정적인 가능성을 간과하고 있습니다. 이로 인해 일관성이 떨어지므로 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 정시 전형에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 내용과 비교할 때 다소 부족한 점이 있습니다. 그러나 여전히 관련성이 높으므로 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트의 긍정적인 가능성을 간과한 점에서 약간의 일관성이 떨어지므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 수능 성적이 4.6일 때의 가능성에 대한 구체적인 언급이 부족합니다. 이로 인해 정확성이 떨어지므로 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 일부 정보의 누락과 일관성 부족으로 인해 완벽하지는 않습니다. 따라서 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 긍정적인 가능성을 간과한 점에서 약간의 차이가 있습니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다. 따라서 점수를 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5123450260443208</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "e비즈니스학과"에 대한 특정한 정시 전형의 기준 점수나 지원 자격 조건이 없습니다. 따라서 현재 주어진 정보만으로는 e비즈니스학과 수능 성적이 4.6일 때 정시 전형으로 추가 합격 가능할 것인지를 판단하기 어렵습니다.
+추가적인 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu. ac. kr/main. do)를 방문하여 해당 학과의 정시 모집 전형 기준 점수와 지원 자격 조건을 확인해 보시거나, 대학 입학처에 직접 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교했을 때, 정시 등급 5.3이 합격하기 어려울 수 있다는 점을 간과하고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 정시 등급 5.3이 합격 가능성이 높다고 주장하는 부분에서 원본 텍스트의 내용을 일관되게 반영하지 못하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 e비즈니스학과의 정시 모집군 및 지원 자격에 대한 정보를 제공하며, 원본 텍스트의 주제와 관련이 깊습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 등급 5.3이 합격 가능성이 높다는 주장은 원본 텍스트의 사실과 일치하지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 정보가 원본의 의미를 왜곡할 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 다만, 일부 내용이 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.7119736827624263</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 정시 모집군 및 지원 자격을 확인해보겠습니다.
+e비즈니스학과는 나군 수능(일반학생전형)으로 모집되며, 전형요소 반영 비율은 다음과 같습니다:
+- 학생부 교과: 0%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 0%
+- 수능: 100%
+따라서 e비즈니스학과의 최종 합격 기준은 수능 점수에만 의존합니다. 동의대학교의 수능 최저 기준이 없으므로, 정시 등급 5.3을 가진 지원자는 이 기준을 충족할 것입니다.
+따라서, 정시 등급 5.3으로 e비즈니스학과에 최초 합격 가능성은 매우 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 모집 인원, 지원자들의 수능 점수 분포 등 다양한 요인에 따라 결정되므로 확실한 보장은 아닙니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 직접 입학처와 연락을 취하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성을 판단하기 위해 추가적인 정보가 필요하다고 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 다릅니다. 원본 텍스트는 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성을 판단하기 위해 여러 요소를 고려해야 한다고 설명하지만, 원본 텍스트의 명확한 결론과는 일치하지 않습니다. 원본 텍스트는 예비 38번의 경우 가능성이 낮다고 명시하고 있으므로, 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 제시하고 있습니다. 그러나 원본 텍스트의 구체적인 내용에 대한 직접적인 언급이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 다소 약해 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다. 원본 텍스트는 예비 38번의 경우 가능성이 낮다고 명시하고 있으므로 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 양호한 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 명확한 결론과는 다소 차이가 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 따라서 이해 가능성 점수는 5로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5874808988690079</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 특정 학과의 예비합격 여부를 판단하기 어렵습니다. 예비합격 가능성은 모집인원, 지원자들의 경쟁률, 서류 및 실기 점수 등 다양한 요소에 따라 결정됩니다.
+이정도면 예비합격 가능할까요?라는 질문에 대한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+1. 지원한 학과의 정원 내 모집 인원
+2. 지원자의 서류 점수와 실기 점수 (만약 실기가 요구된다면)
+3. 해당 전형의 경쟁률
+위 정보를 바탕으로 판단해야 합니다. 만약 더 자세한 정보가 필요하다면, 입학처 웹사이트(https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3  
+   - 설명: 생성된 응답은 3.44의 성적이 동의대학교 간호학과에 합격할 확률이 낮다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 "평균적으로 4.0 이상의 성적을 요구하는 경우가 많다"는 정보는 원본 텍스트에 명시되어 있지 않으므로, 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 특히, 평균 성적에 대한 언급이 원본 텍스트와 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5  
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 정보가 추가되어 있어 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3  
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 평균 성적에 대한 언급이 원본 텍스트에 명시된 내용과 다르기 때문에 정확성에서 일부 점수를 잃었습니다.
+7. Multidimensional Quality Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 점수를 잃었습니다.
+8. Semantic Appropriateness Score (1-5): 4  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6031007886392293</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 합격할 확률은 상당히 낮습니다. 동의대학교 간호학과는 매우 경쟁이 치열한 학과로, 정시 모집에서 평균적으로 4.0 이상의 성적을 요구하는 경우가 많습니다.
+하지만 모든 것이 절대적이지 않으며, 다음과 같은 요소들이 합격 여부에 영향을 미칠 수 있습니다:
+1. **학생부 성적** : 정시 모집에서는 주로 수능 성적과 학생부 성적을 종합적으로 평가합니다. 따라서 3.44의 성적이지만, 다른 과목에서 높은 점수를 받았다면 합격 가능성은 조금 더 높아질 수 있습니다.
+2. **면접 및 실기** : 일부 학과에서는 면접이나 실기를 포함하여 평가하기도 합니다. 이 부분에서 좋은 성적을 받으면 합격 가능성이 높아질 수 있습니다.
+3. **추천서나 특별한 경력** : 특정 경력이나 추천서 등이 있다면 이를 활용해 합격 가능성은 조금 더 높아질 수 있습니다.
+4. **대학의 정책 변화** : 대학마다 정시 모집에서의 평균 성적 기준이 변동할 수 있으므로, 최신 정보를 확인하는 것이 중요합니다.
+추천드리면, 동의대학교 간호학과에 대한 최신 정보를 확인하고, 합격 확률을 높이기 위한 전략을 세우는 것이 좋습니다. 필요하다면 대학 입시 컨설팅 서비스를 활용해 보세요. 더 자세한 정보나 도움이 필요하시다면 https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 간호학과의 평균 성적을 3.89(4등급)이라고 잘못 언급하고 있으며, 이는 원본 텍스트의 평균 성적 3.37과 상충합니다. 또한, 2.52라는 점수로 합격 가능성이 높다고 언급한 원본 텍스트의 내용을 반대로 해석하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 정보를 제공하고 있습니다. 원본 텍스트는 2.52라는 점수가 평균 등급보다 높아 합격 가능성이 높다고 했으나, 생성된 응답은 반대로 2.52로 합격하기 어렵다고 주장하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 간호학과의 입시와 관련된 정보에 대해 논의하고 있습니다. 따라서 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 부분이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 주장이 서로 상충하여 일관된 흐름을 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 평균 성적에 대한 잘못된 정보와 합격 가능성에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 일부 차원에서 높은 점수를 받았지만, 사실성과 일관성에서 심각한 문제를 보이고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 해석하고 있으며, 이로 인해 의미적으로 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6664900279974039</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수로 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 보입니다. 간호학과의 경쟁률이 매우 높고, 평균 성적이 3.89(4등급)인 것을 고려하면 2.52라는 점수로 충분히 합격할 확률은 낮습니다.
+간호학과의 특성상 입시에서 높은 성적을 요구하는 경향이 있으며, 평균 등급이 3.89인 것을 보면 4등급 이상이 필요하다는 것을 알 수 있습니다. 따라서 현재의 점수로는 충분히 합격할 확률이 낮습니다.
+만약에 다른 전형을 고려하거나, 추가적으로 성적 향상을 위해 노력하는 것이 좋을 것 같습니다. 더 자세한 정보나 조언이 필요하시다면 https://ipsi. deu. ac. kr/main. do를 참조해보시는 것도 좋은 방법일 것입니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 정확하게 반영하고 있으며, GPA가 3.7인 경우 합격 가능성이 낮다는 점을 언급하고 있습니다. 그러나 "평균 등급보다 낮은 성적"이라는 표현이 다소 모호하게 느껴질 수 있어 점수를 4로 평가했습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 간호학과의 높은 성적 요구를 언급하고 있으며, 추가적인 정보를 확인할 필요성을 강조하고 있습니다. 다만, "확실한 답변을 위해서는 해당 대학의 간호학과 정시 모집의 최소 GPA 기준을 확인해야 합니다."라는 문장이 원본 텍스트의 정보와 약간의 차이를 보일 수 있어 점수를 4로 평가했습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 점수를 5로 평가했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있어 점수를 4로 평가했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, GPA와 관련된 정보도 정확합니다. 그러나 "평균 등급보다 낮은 성적"이라는 표현이 다소 애매할 수 있어 점수를 4로 평가했습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 표현에서 약간의 모호함이 있어 점수를 4로 평가했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있어 점수를 4로 평가했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 점수를 4로 평가했습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6713185442607805</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 GPA로 간호학과에 정시로 합격하기는 어렵다고 볼 수 있습니다. 간호학과의 경우 보통 높은 성적을 요구합니다. 하지만 확실한 답변을 위해서는 해당 대학의 간호학과 정시 모집의 최소 GPA 기준을 확인해야 합니다.
+위에서 제공된 정보만으로 판단한다면, 간호학과에 대한 정확한 합격 가능성을 알기 위해서는 다음 사항들을 확인해 보세요:
+1. **2023년도와 2024년도 간호학과의 정시 모집 기준 GPA**를 확인하세요.
+2. **고교 유형별 지원 자격**을 다시 한 번 확인하세요.
+만약 해당 정보가 부족하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트에서 더 자세한 정보를 찾아보시는 것이 좋습니다. 또한 대학 입학처에 직접 문의하시거나, 학교 방문을 통해 최신 정보와 지원 가능성을 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 지원자의 성적이 2.58이라는 점을 언급하고 있으며, 간호학과의 평균 성적과 경쟁률에 대한 정보를 제공하고 있습니다. 그러나, "지원자의 성적이 평균보다 낮다"는 부분은 사실과 다릅니다. 원문에서는 2.58이 평균보다 높은 성적이라고 명시하고 있습니다. 이로 인해 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, 지원자의 성적이 평균보다 낮다는 주장은 원문과 모순됩니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 깊으며, 지원자의 성적과 합격 가능성에 대한 정보를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 중복되어 나타나면서 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 지원자의 성적에 대한 정보는 정확하지만, 평균 성적에 대한 언급에서 오류가 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 주제에 적합한 내용을 담고 있습니다. 그러나 일부 표현에서 혼란을 줄 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6620171363043695</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로, 지원자의 성적인 2.58이 충분히 합격 가능할 것으로 보입니다.
+간호학과의 경우, 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 357.63으로, 이는 성적 2.58에 해당하는 점수가 될 것입니다.
+간호학과의 경우, 지원자의 성적이 평균보다 낮지만, 경쟁률이 6.59로 상대적으로 높지 않기 때문에 합격 가능성은 있습니다. 그러나 정확한 합격 여부는 지원자의 전체 서류 및 면접 결과 등 다양한 요소에 따라 결정되므로, 최선을 다해 준비하는 것이 중요합니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 게임공학과에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 내용과 상충하는 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 이를 무시하고 다른 정보를 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 언급이 없고, 다른 주제를 다루고 있어 상충하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 관련이 없습니다. 원본 텍스트는 예비 합격에 대한 정보에 집중하고 있지만, 생성된 응답은 전혀 다른 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 적절성이나 관련성 부족으로 인해 전체적인 흐름이 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트와의 연결이 없고, 주제가 일관되지 않아 독자가 이해하기 어려운 부분이 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 예비 7번의 합격 가능성에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 관계가 전혀 없기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않습니다. 원본 텍스트의 주제를 무시하고 다른 내용을 다루고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원본 텍스트와의 관련성이 부족하여 독자가 혼란스러울 수 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5172092128942972</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到游戏工学专业相关信息，因此无法直接判断是否能被游戏工学专业录取。根据您提供的招生简章内容，建议您关注以下几个方面：
+1. **查看招生计划**：确认游戏工学专业的招生名额和要求。
+2. **成绩准备**：确保您的高考成绩符合该专业的录取标准。
+3. **报名时间**：注意各阶段的报名截止日期。
+您可以访问学校官网（https://ipsi. deu. ac. kr/main. do）查看最新的招生简章和具体的专业信息。如果有更详细的问题，也可以直接联系学校的招生办公室获取帮助。</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 4개 영역 등급 평균이 5.04라고 언급하고 있지만, 원본 텍스트에서는 평균이 4.78이라고 명시되어 있습니다. 또한, "추가 합격 가능성은 낮습니다"라는 주장은 원본 텍스트의 "합격 가능성이 높습니다"와 상충합니다. 이러한 이유로 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 가지 면에서 일치하지 않습니다. 특히, 수능 성적에 대한 해석이 상반되며, 원본에서 제시된 합격 가능성과는 반대되는 주장을 하고 있습니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해합니다. 그러나 여전히 관련된 내용을 다루고 있으므로 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 면에서 다릅니다. 특히, 수능 성적 평균에 대한 잘못된 정보가 포함되어 있어 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답이 원본 텍스트와 일치하지 않기 때문에 전반적인 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 점수는 높지만 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6908496170148485</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 성적을 가지고 동의대학교 게임공학과에 지원하는 경우, 추가 합격 가능성은 낮습니다.
+게임공학과의 모집인원은 최대선발 가능 인원이 3 이내이며, 지원 인원이 21명으로 많은 경쟁률을 보이고 있습니다. 또한, 게임공학과는 수능 4개 영역 등급 평균이 5.04로 높은 점수를 요구하고 있습니다.
+당신의 수능 성적(평균 4.16)은 이전에 언급된 학과들의 평균 수능 성적보다 낮습니다. 따라서, 추가 합격 가능성은 매우 낮다고 볼 수 있습니다.
+만약 추가 합격을 원한다면, 다른 전형이나 학과를 고려해 보는 것이 좋을 것 같습니다. 특히, 나군 학생부종합(평생학습자전형/성인학습자/재직자전형) 등 다른 전형에 지원하는 것을 고려해 볼 수 있습니다.
+더 자세한 정보나 추가 지원 방법이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 경영정보학과에 대한 구체적인 정보를 제공하지 않고, 해당 학과가 포함되지 않았다고 주장합니다. 그러나 원본 텍스트에서는 경영정보학과의 평균 등급과 합격 가능성에 대한 명확한 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 포함하고 있습니다. 원본 텍스트는 경영정보학과의 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 해당 학과에 대한 정보가 없다고 주장합니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과에 대한 질문에 대한 답변을 제공하지 않고, 관련 없는 정보로 대체하고 있습니다. 원본 텍스트의 핵심 주제와 관련이 적어 relevance 점수가 낮습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 큰 오류는 없지만, 내용이 명확하지 않아 읽기 어려운 부분이 있습니다. 따라서 유창성 점수는 중간 정도로 평가됩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족하고, 원본 텍스트와의 연결이 약합니다. 정보가 일관되게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 경영정보학과에 대한 정보가 없다고 주장하는 것은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 내용을 포함하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 다소 혼란스러울 수 있지만, 기본적인 이해는 가능하므로 중간 정도의 점수를 부여합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5826753871866217</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 경영정보학과에 대한 자세한 내용이 없습니다. 경영정보학과가 포함되어 있는 학과 목록을 확인해보니, 현재 데이터에는 해당 학과가 포함되지 않았습니다.
+만약 경영정보학과의 경우, 정시 모집군과 관련된 정보를 찾지 못했다면, 일반고, 자율고 등 다양한 고교 유형에서 지원이 가능하다는 점은 확인되었습니다. 하지만 성적 기준이나 최초등록자에 대한 특별한 조건 등은 제공되지 않았습니다.
+추가적인 정보를 원하시거나 특정 학과의 모집 요건을 확인하려면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조해보시는 것이 좋겠습니다. 해당 사이트에서 최신 정보와 정확한 지원 자격 조건을 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 여부를 판단하기 어렵다고 언급하고 있지만, 원문에서 제공된 평균 등급 정보와 합격 가능성에 대한 명확한 결론을 무시하고 있습니다. 따라서 일부 사실을 반영하고 있으나, 원문에서의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부분 일치하지만, 경영정보학과의 평균 등급에 대한 언급이 없고, 합격 가능성에 대한 결론을 회피하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 정시 합격 여부와 관련된 정보를 제공하고 있으나, 원문에서의 구체적인 데이터와 결론을 충분히 반영하지 못해 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 원문과의 연결이 약간 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 구체적인 수치와 결론을 반영하지 않고, 일반적인 정보만을 제공하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문에서의 구체적인 사실과 결론을 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 경영정보학과의 정시 합격 여부에 대한 질문에 대한 적절한 맥락을 제공합니다. 그러나 원문에서의 구체적인 정보가 부족하여 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.6203041047062564</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 여부를 판단하기 어렵습니다. 경영정보학과의 정시 합격을 위해서는 해당 단과대학 및 모집단위의 정원 내/외 모집 인원, 학생부종합전형의 서류평가와 면접평가 기준 등을 고려해야 합니다.
+현재 제공된 정보에는 경영정보학과에 대한 명시가 없으므로, 경영정보학과의 정시 합격 여부를 판단하기 어렵습니다. 또한 최초등록자로 가능할지 여부도 해당 단과대학 및 모집단위의 전형요소 반영비율 등에 따라 달라질 수 있습니다.
+추가 정보를 제공하거나, 입학전형일정을 확인하시거나, https://ipsi. deu. ac. kr/main. do 를 참조하여 자세한 내용을 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 평균 성적에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 등급과 비교할 때, 정시 성적 5.33이 평균보다 낮다고 언급한 부분이 사실과 다릅니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 정시 성적에 대한 해석에서 일관성이 부족합니다. 원본 텍스트는 5.33이 평균보다 낮다고 명시했으나, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으며, 추가적인 데이터도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 요점에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 사실과 상충하는 부분이 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 복잡한 문장 구조가 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.6963607994321732</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 경영정보학과 일반학생전형에 정시 성적인 5.33의 학생이 합격 가능한지 확정적으로 판단하기 어렵습니다. 
+동의대학교 경영정보학과 일반학생전형에 대한 평균 및 표준편차를 확인해보겠습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 326.89
+  - 표준 편차: 6.92
+- **영어 등급**:
+  - 평균: 2.88
+  - 표준 편차: 0.72
+- **수능 4개 영역 등급**:
+  - 평균: 3.88
+  - 표준 편차: 0.14
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 450.78
+  - 표준 편차: 5.90
+이 데이터를 바탕으로, 정시 성적인 5.33은 수능 4개 영역 등급에서 상당히 높은 점수입니다. 평균치보다 약간 높으며 표준 편차도 작으므로, 이 정도의 점수가 일반적으로 합격 가능한 범위에 속할 가능성이 있습니다.
+하지만, 정확한 합격 여부는 동의대학교에서 공개하는 최종 합격선을 확인해야 합니다. 따라서, 동의대학교의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보와 최종 합격선을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 모집 정보와 성적 반영 기준에 대한 내용을 포함하고 있지만, 원본 텍스트에서 제시된 평균 성적과 합격 가능성에 대한 정보가 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 최초등록자로 지원하기 어렵다는 결론은 원본 텍스트의 합격 가능성이 높다는 주장과 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 정시 모집 정보와 관련된 내용을 다루고 있어 관련성이 높지만, 원본 텍스트의 핵심 질문인 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 주제와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 평균 성적과 합격 가능성에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 누락되어 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.7324941060108127</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 바이오응용공학부에 대한 정시 모집 정보를 확인해보겠습니다.
+바이오응용공학부는 주로 수능 성적을 기준으로 모집하며, 정시모집군은 '나'군으로 분류됩니다. 2024년도의 정시모집군 '나'군에 대한 바이오응용공학부의 모집 정보를 보면, 학생부교과 성적 반영 방식 및 진로선택과목 성적 반영 방법 등이 변경되었습니다.
+2023년도와 2024년도 비교해보면:
+- 2023년도: 진로선택과목 성적반영 A: 2등급 B: 4등급 C:6등급
+- 2024년도: 진로선택과목 성적반영 수 A: 1등급 B: 3등급 C:5등급
+따라서, 2024년도에 바이오응용공학부를 지원하려면 학생부교과 성적이 중요하며, 진로선택과목의 성적 반영 기준이 더 엄격해졌습니다.
+현재 성적 3.33은 중간 정도의 성적입니다. 정확한 가능성을 판단하기 위해서는:
+1. 해당 학년도 바이오응용공학부의 정시 모집 정보를 확인해야 합니다.
+2. 진로선택과목의 성적 반영 기준을 고려해야 합니다.
+따라서, 현재로서는 3.33 정도의 성적만으로 최초등록자로 지원하기 어렵다고 판단됩니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화 상담을 통해 확인하시거나, 제공된 링크인 "https://ipsi. deu. ac. kr/main. do"에서 최신 정보를 확인해보시는 것이 좋습니다.
+만약 추가로 도움이 필요하다면 언제든지 문의해주세요!</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 포함하고 있지만, 원본 텍스트에서 제공된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 구체적인 수치를 언급하지 않고 있습니다. 또한, 방사선학과의 평균 등급이 3.82라는 정보가 누락되어 있어 사실성 점수가 낮아졌습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일관되며, 방사선학과에 지원하는 것에 대한 가능성과 경쟁률을 언급하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 주제를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되면 더 명확한 흐름을 제공할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교할 때 정확성이 떨어집니다. 특히, 방사선학과의 평균 등급이 3.82라는 정보가 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 일관성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 부족함이 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 방사선학과 지원에 대한 조언을 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 더 간결하게 표현할 수 있는 여지가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6237916819922573</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능성이 있지만 경쟁률을 고려하면 어려울 수 있습니다. 방사선학과의 지원자들의 평균 등급은 다음과 같습니다:
+- **방사선학과**
+  - **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 
+    - 평균: 341.62
+    - 표준 편차: 9.80
+평균적으로 341.62의 점수가 필요하며, 제 등급인 4.4는 이보다 높습니다. 하지만 방사선학과의 경쟁률이 7.20으로 매우 높기 때문에, 성적만으로 충분히 합격할 수 있는 보장은 없습니다.
+추천 드리는 방법은 다음과 같습니다:
+1. **자기소개서와 면접 준비**: 방사선학과는 실무 능력과 진로 계획을 중점적으로 평가하기 때문에, 자기소개서와 면접에서 자신의 장점을 잘 표현하는 것이 중요합니다.
+2. **추천서 받기**: 가능하다면 교사나 직장의 상사로부터 추천서를 받아서 지원하면 도움이 될 수 있습니다.
+3. **대학 방문 및 정보 수집**: 대학을 직접 방문하여 학과 소개와 입학 준비에 대한 자세한 정보를 얻는 것이 좋습니다.
+결론적으로, 4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률이 높아서 확실하게 합격할 수 있는 보장은 없습니다. 꾸준히 준비하고 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 2.66의 영어 등급이 평균보다 높다는 주장은 사실과 다릅니다. 실제로 2.66은 평균보다 낮은 점수입니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 지원 가능성에 대한 정보를 제공하지만, 원본 텍스트의 내용과 일부 일치하지 않는 부분이 있습니다. 예를 들어, 2.66의 영어 등급이 평균보다 높다는 주장은 일관성이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 위험성과 경쟁률에 대한 정보를 제공하여 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 주요 포인트인 평균 등급에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 정보가 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁률과 관련된 정보를 제공하지만, 2.66의 영어 등급이 평균보다 높다는 주장은 사실과 다릅니다. 따라서 정확성에 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 위험성을 적절하게 전달하고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 주요 포인트와의 연결이 약합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.6985079568090075</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66의 영어 등급으로 방사선학과를 지원하는 경우, 경쟁률이 높아서 위험이 있을 수 있습니다. 방사선학과는 모집 인원이 적고 지원 인원이 많기 때문에 낮은 영어 점수로 지원하면 충원에 어려움을 겪을 가능성이 큽니다.
+평균 경쟁률을 살펴보면, 대부분의 학과에서 2.66보다 높은 영어 등급을 요구하고 있습니다. 예를 들어, 상경대학 e비즈니스학과의 평균 경쟁률이 8.90이고, 영어 등급 평균이 3.20입니다. 이는 방사선학과의 경우에도 비슷한 경쟁률을 가질 가능성이 높습니다.
+따라서, 2.66의 영어 점수로 방사선학과를 지원하는 것은 위험할 수 있습니다. 더 높은 영어 등급을 목표로 하거나 다른 학과를 고려해 보는 것이 좋을 것 같습니다. 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원본 텍스트에서는 3.66의 성적이 평균보다 높다고 언급되었으나, 생성된 응답에서는 합격 가능성이 낮다고 주장하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관성이 없습니다. 원본에서는 3.66의 성적이 긍정적인 요소로 작용할 수 있다고 했지만, 생성된 응답에서는 반대로 합격 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 농어촌 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 전체적인 논리적 흐름이 다소 부족합니다. 특히, 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 3.66의 성적이 평균보다 높다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 있으며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5992332790688478</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 평균 점수로 경찰행정학전공의 농어촌 전형에 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 농어촌 전형의 경우 일반적으로 서류심사에서 우수한 성적을 요구합니다.
+특히 나군의 농어촌학생전형에서는 다음과 같은 요소들이 중요하게 고려됩니다:
+1. 중·고등학교 재학기간 동안 농어촌 지역에 거주한 증빙서류 제출
+2. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등급 평균이 중요하게 고려됩니다.
+3.66의 점수는 일반적인 학생부 교과 성적에서 중간 정도를 나타내므로, 경쟁력 있는 서류와 면접 준비가 필요합니다. 만약 서류심사 기준에 부족한 부분이 있다면, 동점자 처리기준을 참고하여 추가적으로 지원할 수 있습니다.
+동점자 처리기준은 다음과 같습니다:
+1. 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+2. 영어교과 전 과목 등급 평균 상위자
+3. 국어교과 전 과목 등급 평균 상위자
+따라서, 서류심사에서 우수한 성적을 보여주고, 동점자 처리 기준에 부합하는 증빙 자료를 제출한다면 합격 가능성은 높아질 것입니다. 추가로 면접 준비도 철저히 해야 합니다.
+만약 자세한 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 등록자와 최종 합격자 간의 관계에 대한 일반적인 정보를 제공하지만, 원문에서 언급된 특정 학과에 대한 정보는 누락되어 있습니다. 따라서 일부 사실이 정확하지 않거나 불완전합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, 예비 등록자의 수와 합격 확률에 대한 일반적인 설명이 원문에서 제공된 특정 학과 목록과 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 관련 정보를 제공하고 있지만, 원문에서 제시된 특정 학과에 대한 정보가 누락되어 있어 완전한 관련성을 갖추지 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 약해져서 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비 등록자와 합격자 간의 관계에 대한 일반적인 정보를 제공하지만, 원문에서 제공된 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원문과의 연결이 약해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서 적합합니다. 그러나 원문과의 맥락이 약해져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5040781353744436</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비 등록자 중에서 최종 합격자가 몇 명인지 정확히 알 수 없습니다. 하지만 일반적으로 예비 등록자는 최종 합격자보다 많은 편이므로, 붙을 확률은 낮다고 볼 수 있습니다.
+하지만 다음과 같은 요소들을 고려하면 좀 더 구체적인 판단이 가능할 것입니다:
+1. **수능 성적**: 자신의 수능 성적이 어느 정도인지 확인하세요. 예비 등록자 중에서 수능 성적이 높은 학생들이 최종 합격자로 선정될 확률이 높습니다.
+2. **면접 성적**: 면접 평가에서도 좋은 점수를 받았다면, 이는 최종 합격에 도움이 될 수 있습니다.
+3. **서류 평가 결과**: 서류 평가에서의 성적이 좋았다면, 이 또한 합격 확률을 높일 것입니다.
+4. **모집인원과 예비 등록자 수**: 모집인원과 예비 등록자의 비율을 확인해 보세요. 예를 들어 10명이 모집되는데 50명의 예비 등록자가 있다면, 합격 확률은 낮아질 것입니다.
+더 자세한 정보와 분석을 위해서는 입학처나 해당 대학의 공지사항을 확인하거나 직접 문의하는 것이 좋습니다. 필요하다면 추가적인 지원 전략을 세우는 것도 고려해 보세요.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 잘못된 점이 있습니다. 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명시하고 있지만, 생성된 응답에서는 이 학부에 대한 성적 기준을 제시하고 있습니다. 이는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 경찰행정학과에 대한 성적 기준을 제시하고 있지만, 생성된 응답은 법경찰행정학부에 대한 성적 기준을 언급하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 관련 정보를 제공하고 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원본 텍스트의 핵심 내용과는 다소 동떨어진 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적인 흐름이 있지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적인 일관성이 떨어집니다. 원본 텍스트와의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 법경찰행정학부에 대한 성적 기준을 제시하는 것은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 포함하고 있어 의미적으로 부적절합니다. 법경찰행정학부에 대한 언급은 원본의 내용과 상충합니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7053877477740391</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부에 정시로 들어가기 위해서는 평균 성적을 잘 유지해야 합니다. 하지만 정확한 평균 점수를 말씀드리기는 어렵습니다. 일반적으로 안정권으로 들어가는 평균 성적은 대략 국어 90점 이상, 수학 85점 이상, 영어 85점 이상이 필요할 것으로 예상됩니다.
+문 닫고 들어갈 수 있는 점수는 정확한 데이터가 없으나, 법경찰행정학부의 경우 경쟁률이 높아 평균적으로 국어 90점 이상, 수학 85점 이상, 영어 85점 이상을 받는 것이 좋습니다. 이외에도 사회 과목 등급도 중요하므로 과목별로 잘 준비해야 합니다.
+추가적으로, 동의대학교에서는 나군 학생부교과전형이 존재하며, 농어촌학생 전형에 지원하는 경우 추가적인 가산점이 부여되므로 이 점도 고려해 보시는 것이 좋습니다. 
+자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나 직접 문의하시는 것이 가장 정확할 것입니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 정보가 부족하고, 아동학과의 평균 등급과 관련된 정보가 잘못 해석되었습니다. 아동학과의 평균 등급이 6.33인 반면, 응답에서는 보육가정상담학과의 합격 가능성이 낮다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 아동학과의 평균 등급과 보육가정상담학과의 평균 등급을 비교하는 과정에서 일관성이 결여되어 있습니다. 아동학과의 평균 등급이 6.33임에도 불구하고, 5.33의 등급으로 보육가정상담학과에 지원할 경우 합격 가능성이 낮다고 주장하는 것은 모순입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 아동학과와의 비교가 필요하지 않은 부분에서 불필요한 정보가 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 보육가정상담학과와 아동학과의 비교가 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 응답에서 제시된 정보는 아동학과의 평균 등급과 관련하여 부정확한 해석을 포함하고 있습니다. 5.33의 등급이 아동학과의 평균 등급보다 낮은 것으로 잘못 이해되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 아동학과와 보육가정상담학과의 비교가 불필요하게 포함되어 있어 의미 전달이 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 전반적으로 이해할 수 있지만, 일부 문장 구조가 복잡하여 독자가 혼란스러울 수 있습니다. 더 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6326179191678357</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 지원한다면, 합격 가능성은 높지 않을 것으로 예상됩니다.
+보육가정상담학과의 경우, 평균 등급이 상당히 낮습니다. 예를 들어, "상경대학 e비즈니스학과"의 경우 평균 등급이 3.20이고 표준 편차가 1.24입니다. 이와 비교해보면, 5.33이라는 등급은 상당히 높은 수준이며, 보육가정상담학과의 지원자들 중에서 매우 뛰어난 성적을 가지고 있다고 볼 수 있습니다.
+하지만, 정시 모집에서는 경쟁률이 매우 중요합니다. 보육가정상담학과의 경우, 평균 경쟁률이 1.73입니다. 이는 상당히 낮은 경쟁률이며, 지원자들 중에서 성적을 높게 유지한 학생들이 많을 것으로 예상됩니다.
+따라서, 5.33이라는 등급을 가지고 지원한다면, 충분히 좋은 점수를 가지고 있다고 볼 수 있지만, 실제 합격 가능성은 경쟁률과 지원자의 성적 분포에 따라 달라질 수 있습니다. 
+결론적으로, 5.33의 등급으로 보육가정상담학과에 지원한다면 합격 가능성이 높지만, 확실한 것은 아니므로, 최종 합격 여부는 입시 결과 발표를 기다려야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격 가능성에 대한 정보를 제공하지만, "합격 가능성은 매우 낮다"는 주장은 원본 텍스트의 내용과 다소 상충합니다. 원본 텍스트는 예비 12번을 받은 경우 합격 가능성이 아예 없지는 않다고 명시하고 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 합격 가능성에 대한 해석이 다릅니다. 원본 텍스트는 예비 12번의 경우 합격 가능성이 있다고 언급하는 반면, 생성된 응답은 가능성이 매우 낮다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예비 번호와 충원 합격에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 차이로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 예비 12번의 합격 가능성에 대한 주장이 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 대체로 잘 전달하고 있습니다. 그러나 일부 해석에서 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 내용에서 혼란을 줄 수 있는 부분이 있어 완전한 이해 가능성은 아닙니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.7015018533888759</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받았다면, 합격 가능성은 매우 낮습니다. 일반적으로 충원 합격자는 최대 6명까지 선발되며, 이미 많은 수의 지원자가 합격한 상태입니다.
+이런 상황에서는 다음과 같은 점들을 고려해볼 필요가 있습니다:
+1. **현재 모집인원**: 보육가정상담 모집인원은 3명이며, 충원 합격자는 최대 6명까지 선발됩니다.
+2. **예비 순위**: 예비 12번을 받았다는 것은 이미 많은 지원자가 선발되었음을 의미합니다.
+따라서, 현재 상황에서는 합격 가능성은 매우 낮다고 볼 수 있습니다. 하지만 정확한 판단을 위해서는 동의대학교 입학관리팀에 직접 문의하거나, 해당 홈페이지에서 최신 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 유아교육학과의 평균 등급이 4.18로, 4.75의 성적으로는 지원하기 어렵다고 명시되어 있습니다. 그러나 생성된 응답에서는 유아교육과의 경쟁률이 낮아 합격 가능성이 높다고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 유아교육학과에 대한 정보가 상충되며, 원본에서 제시된 데이터와 다르게 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트에서 제공된 구체적인 학과 정보와는 다소 거리가 있습니다. 그러나 전반적으로 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 전반적으로 유창하게 표현되었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 유아교육학과에 대한 결론이 원본 텍스트와 일치하지 않아 일관성이 떨어집니다. 따라서 완전한 일관성을 갖추지 못했습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 대한 정보가 부정확하여 점수가 낮습니다. 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로 적절한 부분도 있지만, 유아교육학과에 대한 잘못된 해석이 있어 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 내용이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7479092449645348</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75의 수능 등급을 가지고 지원한다면, 각 학과별로 평균적인 경쟁률과 지원 인원 등을 고려해보겠습니다.
+1. **ICT융합공과대학**
+   - 전기공학과, 전자공학과: 경쟁률 1.52, 지원 인원 105명
+   - 디지털콘텐츠학과: 경쟁률 4.40, 지원 인원 22명
+   - 게임공학과: 경쟁률 5.33, 지원 인원 16명
+2. **인문사회과학대학**
+   - 유아교육과: 경쟁률 0.85, 지원 인원 11명
+유아교육과의 경우, 경쟁률이 매우 낮기 때문에 4.75의 수능 등급으로 충분히 합격할 가능성이 높습니다.
+ICT융합공과대학의 경우, 디지털콘텐츠학과와 게임공학과는 상대적으로 높은 경쟁률을 보이므로 4.75의 수능 등급으로 지원하는 것은 어려울 수 있습니다. 그러나 전기공학과, 전자공학과는 낮은 경쟁률을 가지고 있으므로 이들 학과에서는 가능성이 있습니다.
+결론적으로, 유아교육과는 4.75의 수능 등급으로 충분히 지원할 수 있으며, ICT융합공과대학의 경우 디지털콘텐츠학과와 게임공학과는 어려울 것으로 보입니다. 전기공학과, 전자공학과는 고려해볼 만한 선택일 것입니다.
+추가적으로, 정확한 판단을 위해서는 각 학과별로 최소 수능 등급 기준이나 추가적인 지원 자격 조건 등을 확인하시길 바랍니다. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 영어 등급의 평균이 3.20으로 언급되었으나, 원본 텍스트에서는 아동학과의 영어 등급 평균이 6.33으로 명시되어 있습니다. 이는 명백한 사실 오류입니다. 또한, 수능 4개 영역 등급 평균이 7.08이라는 정보도 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 영어 등급 평균에 대한 정보가 상충합니다. 원본 텍스트의 내용과 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으나, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있으나, 논리적인 흐름이 다소 부족합니다. 특히, 각 요소 간의 연결이 명확하지 않아 일관된 주제를 유지하기 어렵습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히, 평균 등급에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6930219892212567</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16이라는 등급을 가지고 보육가정상담학과의 일반학생전형에 지원하시려는 경우, 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **보육가정상담학과의 평균 및 표준 편차**: 
+   - 영어 등급의 평균: 3.20
+   - 영어 등급의 표준 편차: 1.24
+2. **나군 학생부교과(농어촌학생전형)의 동점자 처리기준**:
+   - 순위 1: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자
+   - 순위 2: 영어교과 전 과목 등급 평균 상위자
+   - 순위 3: 국어교과 전 과목 등급 평균 상위자
+3. **현재의 등급**:
+   - 현재의 등급이 4.16으로, 이는 영어 교과 전 과목 등급 평균 상위자에 해당합니다.
+따라서, 현재의 등급인 4.16은 순위 2의 동점자 처리기준을 충족할 수 있습니다. 하지만, 실제 합격 가능성은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+- **지원 인원과 모집 인원**: 보육가정상담학과의 지원 인원이 많다면 경쟁률이 높아져서 합격 가능성은 낮아질 수 있습니다.
+- **기타 평균 등급**: 다른 과목들의 평균 등급도 중요합니다. 예를 들어, 국어, 수학 등의 평균 등급이 높다면 영어의 평균 등급만으로는 합격하기 어렵습니다.
+따라서, 정확한 합격 가능성은 지원 인원과 모집 인원, 그리고 다른 과목들의 평균 등급 등을 고려하여 판단해야 합니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 소프트웨어융합학과가 아닌 소프트웨어공학부에 대한 정보를 제공하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5):
+   - 점수: 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부정확성으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5):
+   - 점수: 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 모순으로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5):
+   - 점수: 1
+   - 설명: 생성된 응답은 원문과 사실적으로 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5):
+   - 점수: 1
+   - 설명: 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5):
+   - 점수: 2
+   - 설명: 생성된 응답은 원문과 의미적으로 상충하는 내용을 담고 있어 의미 적합성이 낮습니다.
+9. Understandability Score (1-5):
+   - 점수: 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 내용의 부정확성으로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.4776829969412087</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)로 정시로 지원할 수 있습니다. 이 학과의 지원 자격을 위해서는 평균적으로 영어 4.5 등급 정도를 받아야 합니다.
+이 정보는 주어진 데이터에서 추출한 것입니다. 실제 지원 시에는 대학 홈페이지(https://ipsi.deu.ac.kr/main.do)에서 최신 정보와 정확한 지원 자격을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 평가에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 서류 평가와 학생부 교과성적에 대한 내용을 충분히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 면접 평가에 대한 정보를 제공하지만, 원본 텍스트의 서류 평가와 학생부 교과성적에 대한 내용과 일관성이 부족합니다. 두 정보가 서로 충돌하지는 않지만, 원본의 주요 내용을 충분히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 정보를 제공하여 원본 텍스트의 주제와 관련이 있지만, 서류 평가와 학생부 교과성적에 대한 언급이 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 준비에 대한 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 주요 내용과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 면접 평가에 대한 정보를 제공하지만, 원본 텍스트의 서류 평가와 학생부 교과성적에 대한 정확한 정보를 포함하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 원본 텍스트의 주요 내용을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 면접 준비와 관련된 의미를 잘 전달하고 있으며, 문맥에 적합한 내용을 포함하고 있습니다. 그러나 원본 텍스트의 주요 내용과의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.4980531911309993</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>면접에서는 주로 제출서류와 면접 질문 공통문항에 기반하여 평가됩니다. 따라서, 면접 전에 제출서류를 잘 검토하고, 면접 질문 공통문항에 대한 답변을 미리 준비하는 것이 중요합니다.
+제출서류는 주로 학생부 온라인 제공 동의를 통해 학생부를 확인받습니다. 따라서, 특별히 추가로 제출해야 하는 서류는 없습니다. 하지만 면접 질문 공통문항에 대한 답변을 미리 준비하고, 자신의 경험과 성장과정을 잘 정리하는 것이 좋습니다.
+면접에서는 지원동기와 학업계획, 학업역량 및 전공적합성 관련 내용 등을 주로 평가합니다. 따라서, 이들 내용을 잘 준비하여 면접에서 자연스럽게 이야기할 수 있도록 미리 연습해보는 것이 도움이 될 것입니다.
+더 자세한 정보나 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do" 링크를 참조하시거나 관계된 부서에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서 제공된 4.12의 평균 성적과 4.08의 성적 비교에 대한 내용을 충분히 반영하지 못하고 있습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 소프트웨어공학부에 대한 구체적인 정보가 부족하다는 점에서 일관성이 떨어집니다. 원본 텍스트의 주요 내용을 충분히 반영하지 못하고 있어 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부와 관련된 질문에 대한 답변을 제공하고 있으나, 원본 텍스트의 핵심 정보인 평균 성적에 대한 언급이 부족하여 약간의 관련성 결여가 있습니다. 따라서 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴져 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 소프트웨어공학부에 대한 구체적인 정보가 부족하여 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 맥락을 완전히 반영하지 못해 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확하게 정보를 전달하고 있습니다. 그러나 일부 내용이 모호하게 느껴질 수 있어 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6392611219445653</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 동의대학교 인문사회과학대학 중에서 어떤 학과가 4.08이라는 점수를 받았는지 정확히 알 수 없습니다. 또한, 소프트웨어공학부에 대한 특별한 정보가 없기 때문에, 해당 학과의 최소 성적 기준을 충족할 수 있는지 판단하기 어렵습니다.
+더 자세한 정보를 얻으시려면, 동의대학교 인문사회과학대학 소프트웨어공학부의 정시 최저 합격 점수나 기타 입학 조건 등을 확인해보시는 것이 좋겠습니다. 필요하다면, 대학 관계자에게 직접 문의하시거나, 제공된 개인정보 이용목적과 항목을 기반으로 동의대학교 웹사이트를 참조하여 자세한 정보를 얻으실 수 있습니다.
+https://ipsi. deu. ac. kr/main. do 에서 더 많은 정보를 찾으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않고 있으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 이는 원본 텍스트와의 사실적 일치가 부족합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 다른 학과에 대한 정보를 제공하고 있습니다. 이는 원본 텍스트의 내용과 상충합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변으로는 적절하지 않지만, 관련된 주제인 소프트웨어공학부에 대한 정보를 제공하고 있습니다. 그러나 질문의 핵심에 직접적으로 답하지 않기 때문에 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 반복적인 표현이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 관련성이 떨어져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 다른 학과에 대한 수치를 제시하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 원본 텍스트와의 일치성 및 관련성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 관련이 있지만, 질문의 맥락과는 다소 어긋나 있습니다. 따라서 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져서 질문에 대한 명확한 답변으로는 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.5755886590708622</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)의 경우 평균 수능 4개 영역 등급이 5.27입니다 (표준 편차는 0.43). 이는 평균적으로 5등급을 받은 학생들이 대부분 충원에 성공한 것을 의미합니다.
+따라서, 평균 5등급으로 지원한다면 경쟁률이 높아 충원에 성공하기 어려울 것으로 예상됩니다. 하지만 표준 편차가 작은 점을 고려하면, 5등급을 받은 학생들도 일부는 충원에 성공할 수 있습니다.
+따라서, 평균 5등급으로 지원한다면 경쟁률이 높아 충원에 성공하기 어려울 것으로 보입니다. 하지만 특정 상황에서 (예를 들어, 다른 과목의 점수가 매우 높다면) 충원에 성공할 가능성도 있습니다.
+더 자세한 정보는 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하시거나 대학 측과 직접 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 평균 등급과 경쟁률에 대한 정보를 제공하지만, 원본 텍스트에서 제공된 평균 등급(5.32 및 5.78)과 비교할 때, 4.37이라는 수치는 정확하지 않습니다. 또한, 경쟁률에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 등급에 대한 수치가 다르기 때문에 일관성이 부족합니다. 원본 텍스트는 4.28이 평균 등급보다 높다고 판단했으나, 생성된 응답에서는 4.28이 낮다고 언급하고 있어 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 입학 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 추가 정보가 포함되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 평균 등급에 대한 설명이 원본 텍스트와 일치하지 않아 약간의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 등급과 관련된 수치가 원본 텍스트와 다르기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 수치의 불일치로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6852560770124135</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터만으로는 동의대학교 신소재공학부의 입학 기준을 정확히 알기 어렵습니다. 동의대학교 신소재공학부의 경우, 지원 자격과 모집 단위, 경쟁률 등이 매년 변동될 수 있기 때문입니다.
+하지만, 제공된 데이터를 바탕으로 추론해보면:
+1. **수능 4개 영역 평균 등급**: 동의대학교 신소재공학부의 지원자들의 수능 4개 영역 평균 등급은 약 4.37입니다 (2024학년도 모집단위 참조).
+2. **경쟁률**: 2024학년도 모집단위에서 지원 인원이 89명이고 모집 인원이 10명이므로 경쟁률은 약 8.90입니다.
+3. **평균 등급**: 제공된 데이터의 평균 수능 4개 영역 등급이 약 4.37이며, 이는 지원자들의 대체적인 성적을 나타냅니다.
+현재의 수능 4개 영역 평균 등급인 4.28은 약간 낮은 편입니다. 그러나 동의대학교 신소재공학부의 평균 수능 4개 영역 등급이 약 4.37이라는 점을 고려하면, 4.28의 성적도 충분히 합격 가능성은 있습니다.
+하지만, 정확한 입학 가능성을 판단하기 위해서는 동의대학교 신소재공학부의 최신 모집요강과 기준 등을 확인해야 합니다. 따라서, **"https://ipsi. deu. ac. kr/main. do"** 웹사이트를 방문하여 최신 정보를 확인하는 것이 가장 정확한 방법입니다.
+또한, 동의대학교 신소재공학부의 입학 기준은 매년 변동될 수 있으므로, 해당 페이지에서 가장 최신 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보가 잘못되어 있습니다. 원문에서는 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답에서는 일반적인 학생 선발에 대한 정보를 제공하며 자기소개서가 필요할 수 있는 경우를 언급하고 있습니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 자기소개서가 필요 없다고 명확히 말하고 있지만, 생성된 응답은 자기소개서가 필요할 수 있는 경우를 설명하고 있어 서로 모순됩니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주제의 핵심인 자기소개서의 필요성에 대한 정보가 아닌 다른 정보에 초점을 맞추고 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 원문과의 연결이 부족하여 일관된 논리적 흐름이 없습니다. 원문에서 제시한 핵심 주제와의 연관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 크게 다릅니다. 원문은 자기소개서가 필요 없다고 명시하고 있지만, 생성된 응답은 자기소개서가 필요할 수 있는 경우를 언급하고 있어 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 모두 낮은 점수를 받았습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않습니다. 원문에서의 주제와는 다른 방향으로 나아가고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원문과 일치하지 않아 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.3999103210015198</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的的学生选拔通常不需要提交个人陈述书。根据提供的信息，对于一般学生选拔（가군），主要考虑的科目成绩和加权分数计算方法如下：
+1. **国语** (25%)
+2. **数学(概率与统计)** 或者 **数学(微积分或几何)** (25%) - 根据你选择的科目
+3. **英语** (25%)
+4. **探究(社会探究或科学探究)** (25%)
+加权分数计算方法会根据不同的专业和选拔类型有所不同。例如，对于“한의예과 수학(확률과통계) 응시者”，数学成绩会被特别考虑。
+至于个人陈述书（자기소개서），一般在以下几种情况下需要提交：
+- **学生部综合** (학생부종합) 类型的选拔
+- 特定的专业或项目，如艺术、设计等专业
+如果你申请的是“인간공학과”、“컴퓨터공학과  - 교직” 等理工科专业，则通常不需要提交个人陈述书。建议你查看具体的招生简章以确认是否需要提交个人陈述书。
+如果不确定，请访问以下网站获取更多信息：https://ipsi. deu. ac. kr/main. do
+希望这些信息对你有帮助！如果有其他问题，欢迎继续提问。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5에 대한 여러 요인을 고려하여 합격 가능성을 평가하는 내용을 포함하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 원본 텍스트에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 고려 사항을 잘 설명하고 있습니다. 그러나 원본 텍스트에서 강조된 각 학과의 평균 등급과 비교하는 중요성에 대한 언급이 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 여러 요인을 정확하게 설명하고 있지만, 원본 텍스트에서 제공된 특정 데이터(예: 평균 등급)와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 원본 텍스트의 특정 세부 사항이 누락되어 있어 약간의 점수를 낮추었습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 따라서 의미 적합성이 매우 높습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6757640059479896</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 반영 영역 중에서 어떤 모집단위에 지원할 수 있는지 결정하는 데 중요한 요소가 됩니다. 하지만 추가모집에 지원하더라도 여러 요인을 고려해야 합니다.
+1. **모집단위의 경쟁률**: 지원하고자 하는 단과대학 및 모집단위의 경쟁률이 매우 중요합니다. 경쟁률이 높다면, 4.5라는 점수로 충분히 합격할 수 있는 확률은 낮을 수 있습니다.
+2. **모집인원과 지원인원**: 각 단과대학 및 모집단위의 모집인원과 지원인원도 중요한 요소입니다. 모집인원이 많고 지원인원이 적다면, 합격 가능성은 높아지지만 반대로 모집인원이 적고 지원인원이 많다면 합격 가능성은 낮아질 수 있습니다.
+3. **전형요소의 반영비율**: 각 단과대학 및 모집단위에서 수능 점수를 얼마나 반영하는지도 중요합니다. 예를 들어, 수능 점수가 전체 평가 중에서 큰 비중을 차지한다면, 4.5라는 점수로 합격할 확률은 높아질 수 있습니다.
+4. **기타 평가 요소**: 면접이나 서류평가 등 기타 평가 요소도 중요한 역할을 합니다. 특히 면접에서는 지원동기, 학업계획, 전공적합성 등을 종합적으로 평가하므로, 이 부분에서 좋은 성과를 얻는다면 합격 가능성은 높아질 수 있습니다.
+따라서, 4.5라는 점수로 추가모집에 지원할 경우, 각 단과대학 및 모집단위의 경쟁률, 모집인원과 지원인원, 전형요소의 반영비율 등을 고려하여 합격 가능성을 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입시 홈페이지 (https://ipsi. deu. ac. kr/main. do) 또는 입학처에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학부의 정시 모집 등급 정보가 없다고 주장하지만, 원본 텍스트에는 신소재공학과의 평균 등급에 대한 구체적인 정보가 포함되어 있습니다. 따라서 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 반영하지 않고, 오히려 모순된 정보를 제공합니다. 원본 텍스트는 평균 등급에 대한 정보를 제공하고 있지만, 생성된 응답은 이를 부정하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 제공된 정보의 중요성을 간과하고 있습니다. 원본 텍스트의 핵심 정보를 무시하고 있어 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 신소재공학부의 평균 등급에 대한 정보를 제공하지 않고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 생성된 응답은 낮은 점수를 받습니다. 사실성, 일관성, 정확성에서 모두 부족한 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락을 충분히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 원본 텍스트와의 관련성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.574627225610427</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부에 대한 정시 모집 등급 정보가 없습니다. 관련 정보를 확인하기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 방문하여 최신 정보를 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 447점이 작년 신소재공학과의 평균 점수보다 낮다고 주장하고 있지만, 실제로는 378.15점이 평균 점수이므로 447점은 훨씬 높은 점수입니다. 따라서 사실과 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 447점이 합격 가능성이 높다고 언급하는 반면, 생성된 응답은 가능성이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보로 인해 주제에 대한 정확한 이해를 방해하고 있습니다. 그러나 여전히 관련된 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 일관성이 떨어집니다. 주장이 서로 상충하여 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 사실과 다르게 447점이 작년 평균 점수보다 낮다고 잘못 언급하고 있습니다. 이는 명백한 부정확성입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 잘못된 정보로 인해 전체적인 의미 전달이 왜곡되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7002352523937583</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>447점의 표준 점수가 동의대학교 정시에 해당하는 특정 학과에서 작년 최종 평균 점수를 넘는다는 것은 가능성이 매우 낮습니다. 하지만, 이는 확실한 보장이 아니라 가능성입니다.
+작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 작년에는 해당 학과에 충원된 학생들의 성적이 현재보다 더 우수했을 가능성이 있습니다. 그러나 이는 단순히 표준 변환 점수만으로 판단하기엔 한계가 있어, 실제 지원 시점의 경쟁률, 지원 인원 등 다양한 요인들이 함께 고려되어야 합니다.
+따라서 447점이 작년 최종 평균 점수보다 약간 낮은 점수라는 것을 감안할 때, 작년에 비해 더 많은 학생들이 지원하거나, 충원된 학생들의 성적이 현재보다 더 우수하다면, 447점으로도 충원될 가능성은 매우 낮습니다.
+만약 확실한 정보를 얻고 싶다면, 동의대학교 입학처 웹사이트나 전화로 직접 문의하시는 것이 가장 정확한 답변을 받는 방법입니다. "https://ipsi. deu. ac. kr/main. do" 를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용을 잘못 해석하고 있습니다. 원본에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 4.3 등급대의 성적이 합격하기 어렵다고 주장하고 있습니다. 이는 원본의 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적보다 높은 편이라고 설명하고 있으나, 생성된 응답은 4.3 등급대의 성적이 합격하기 어렵다고 하여 서로 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 잘못 해석하여 잘못된 결론을 도출하고 있습니다. 그러나 경쟁률, 평균 점수, 표준 편차와 같은 추가 정보를 제공하여 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있으나, 결론이 원본과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있습니다. 4.1~4.2 등급대의 성적이 합격 가능성이 높다고 한 원본의 내용을 왜곡하여 4.3 등급대가 어렵다고 주장하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본의 의미와 관련이 있지만, 잘못된 해석으로 인해 의미 전달이 부정확합니다. 원본의 의도를 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본과의 불일치로 인해 혼란을 줄 수 있습니다. 정보는 명확하게 전달되지만, 결론이 잘못되어 이해에 어려움을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5851198773266386</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급대의 성적이 4.1~4.2 정도로 변환되면, 신소재공학부 일반 학생 전형에 붙는 것은 어렵다고 볼 수 있습니다. 신소재공학부의 경쟁률과 평균 점수가 고려되어야 하며, 현재 제공된 데이터만으로 판단하기에는 부족합니다.
+신소재공학부의 경우 다음과 같은 정보가 필요할 것입니다:
+1. **경쟁률**: 4.3 등급대에서 지원하면 어느 정도 경쟁률이 예상되는지.
+2. **평균 점수**: 신소재공학부의 평균 점수가 얼마나 되는지.
+3. **표준 편차**: 표준 편차가 얼마나 되는지를 확인하여, 4.1~4.2 등급대가 평균점수와 비교해 어느 정도 차이인지 판단해야 합니다.
+만약에 신소재공학부의 평균 점수가 4.5 이상이고 표준 편차가 작다면, 4.3 등급대는 경쟁력을 갖추지 못할 가능성이 높습니다. 반대로 평균 점수가 낮고 표준 편차가 크다면, 조금 더 가능성은 있습니다.
+따라서, 정확한 판단을 위해서는 신소재공학부의 최신 정보를 확인하는 것이 좋습니다. 만약에 해당 정보를 찾지 못한다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 공식 웹사이트에서 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 반영 영역과 가산점에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 최초합격자 성적에 대한 구체적인 수치나 통계는 포함되어 있지 않습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 있지만, 원본에서 제공된 구체적인 성적 정보와는 일치하지 않습니다. 응답이 원본의 내용을 보완하는 방식으로 작성되었으나, 직접적인 정보는 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 정보와 관련된 내용을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 정보와는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조로 작성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 성적 정보와의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 수능 반영 영역에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 수치와는 일치하지 않으므로 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 정보가 누락되어 있어 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 관련된 정보를 제공합니다. 그러나 원본의 구체적인 성적 정보와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.656194479655183</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형에 지원하려면, 해당 학과의 수능 반영 영역 및 가산점을 알아보는 것이 중요합니다. 동의대학교 인공지능학과의 경우, 수능 반영 영역은 다음과 같습니다:
+- 국어(화법과작문 또는 언어와매체) 25%
+- 수학(확률과통계 또는 미적분 또는 기하) 25%
+- 영어 25%
+- 탐구(사회탐구 또는 과학탐구 - 2개 과목 합) 25%
+특히, 수학영역에서는 미적분 또는 기하 중 선택하여 응시하면 수학 취득 표준점수의 10% 가산점을 받을 수 있습니다.
+따라서, 동의대학교 인공지능학과에 지원하기 위해서는 다음과 같은 성적을 갖추는 것이 중요합니다:
+- 국어: 표준점수를 얻는 것이 목표
+- 수학: 미적분 또는 기하 중 선택하여 응시하고, 표준점수를 얻는 것이 목표로, 가산점을 받기 위해 10% 이상의 점수를 얻는 것이 중요합니다.
+- 영어: 등급에 따른 점수를 얻는 것이 목표
+- 탐구: 사회탐구 또는 과학탐구 중 선택하여 응시하고, 표준점수를 얻는 것이 목표
+이러한 성적을 갖추기 위해서는 꾸준히 공부와 연습을 하는 것이 중요합니다. 또한, 동의대학교의 수능 반영 비율과 가산점을 고려하여 학업 계획을 세우는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 일부 학과에 대한 평균 성적과 표준 편차를 언급하고 있지만, 전체적으로 충원 합격 가능성을 정확하게 반영하지 못하고 있습니다. 예를 들어, 경영학과의 평균 성적이 4.69로 명시되어 있지만, 생성된 응답에서는 5.45로 잘못 언급되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 일부 정보가 일관되지 않으며, 특히 경영학과에 대한 정보가 원본 텍스트와 상충합니다. 원본 텍스트에서는 경영학과의 평균 성적이 4.69로 명시되어 있으나, 생성된 응답에서는 5.45로 잘못 기재되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있으며, 5.27 성적에 대한 충원 합격 가능성을 다루고 있습니다. 그러나 특정 학과에 대한 정보가 부족하여 완전한 관련성을 제공하지는 못합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과에 대한 평가가 명확하게 제시되어 있습니다. 그러나 경영학과에 대한 정보의 오류로 인해 전체적인 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 경영학과의 평균 성적에 대한 잘못된 정보로 인해 정확성이 떨어집니다. 또한, 충원 합격 가능성에 대한 평가가 원본 텍스트와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 정보의 정확성과 일관성 부족으로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.7059143427417738</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 등급은 상경대학의 모집단위 중에서 어느 학과에 지원할지 따라 다르게 평가될 것입니다.
+1. **경영학과**: 평균이 5.45이고 표준 편차가 0.52입니다. 따라서 5.27은 약간 낮은 수치로, 경쟁률이 높아서 충원에 합격하기는 어려울 가능성이 있습니다.
+2. **회계학과**: 평균이 4.99이고 표준 편차가 0.41입니다. 따라서 5.27은 상대적으로 높은 수치로, 충원에 합격할 확률이 높습니다.
+3. **경영정보학과**: 평균이 4.31이고 표준 편차가 0.23입니다. 따라서 5.27은 매우 높은 수치로, 충원에 합격할 확률이 매우 높습니다.
+4. **e비즈니스학과**: 평균이 4.53이고 표준 편차가 0.36입니다. 따라서 5.27은 상대적으로 높은 수치로, 충원에 합격할 확률이 높습니다.
+따라서, 5.27이라는 수능 등급으로는 **회계학과, 경영정보학과, e비즈니스학과** 중에서 충원에 합격할 가능성이 높습니다. 그러나 **경영학과**에서는 경쟁률이 매우 높아서 충원에 합격하기 어려울 것으로 예상됩니다.
+만약 특정 학과를 목표로 한다면, 해당 학과의 평균 등급과 표준 편차를 기반으로 더 정확한 판단을 내릴 수 있습니다. 필요하다면, 대학 입학처에 직접 문의하시거나, 제공된 데이터를 바탕으로 최종 결정을 내리시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 수능 4개 영역 등급의 평균 점수를 5.78로 언급했으나, 이는 원본 텍스트에 명시된 4.49와 상충합니다. 또한, 4.2라는 점수가 평균보다 낮다고 언급했지만, 원본 텍스트에서는 4.2가 평균보다 높은 성적이라고 명시되어 있습니다. 이러한 점에서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 평균 점수와 관련된 정보에서 모순이 발생합니다. 원본 텍스트의 정보와 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부에 대한 정보를 제공하고 있으며, 질문의 주제와 관련이 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 연결되지 않아 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 수치와 정보는 원본 텍스트와 일치하지 않으며, 특히 평균 점수와 관련된 부분에서 큰 오류가 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 사실성과 정확성에서 큰 결함이 있어 전반적인 품질이 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와 다르게 해석된 부분이 있어 의미적으로 완벽하게 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6825145956698151</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급으로 보이는데, 동의대학교 소프트웨어공학부에 대한 정보를 확인해보겠습니다.
+동의대학교 소프트웨어공학부의 경우, 2024학년도 모집단위에서 지원 인원이 많고 경쟁률이 높습니다. 예를 들어, "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"의 경우, 2024년 모집인원은 56명이고 지원 인원이 81명으로 경쟁률이 1.45입니다.
+수능 4개 영역 등급의 평균 점수가 5.78이며, 표준 편차가 0.49입니다. 이는 전체 지원자의 수능 성적이 상대적으로 높은 것을 의미합니다.
+당신이 4.2라는 점수를 가지고 있다면, 평균보다 낮은 점수로 보입니다. 그러나 표준 편차가 작다는 것은 전체 지원자의 점수가 비교적 일관되어 있다는 것을 의미하므로, 4.2의 점수도 충분히 합격 가능성 있는 범위에 속할 수 있습니다.
+결론적으로, 4.2라는 점수로는 합격 가능성이 있지만, 경쟁률이 높고 평균 점수가 상대적으로 높기 때문에 확실한 것은 아닙니다. 동의대학교 소프트웨어공학부에 지원하시려면, 최종 합격 가능성은 실제 모집단위별 지원자들의 성적 분포와 경쟁률을 고려하여 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 동의대학교의 공식 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나, 대학 관계자에게 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보와 3.92라는 성적이 합격 가능성이 높다는 점을 언급하고 있지만, 구체적인 성적 산출 방법이나 석차등급 평균에 대한 정보는 제공하지 않고 있습니다. 따라서 일부 사실은 반영되었으나, 전체적으로 정확한 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 지원 가능성을 논의하고 있지만, 원본 텍스트에서 제공된 평균 등급과의 직접적인 비교가 부족하여 일관성이 떨어집니다. 원본의 정보와 생성된 응답 간의 연결이 명확하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부의 지원 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와 직접적으로 연결되지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 각 항목 간의 연결이 다소 약해 전체적인 일관성이 떨어질 수 있습니다. 그러나 전반적으로는 이해할 수 있는 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 3.92라는 성적에 대한 정보는 정확하지만, 석차등급 평균이나 성적 산출 방법에 대한 구체적인 정보가 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 정보의 정확성과 일관성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6503350412047811</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 성적을 가지고 화학환경공학부의 일반학생전형에 지원이 가능한지 판단하기 위해서는 몇 가지 정보가 필요합니다.
+1. **성적 산출방법**: 동의대학교의 정시 학생부종합전형에서 사용하는 성적 산출 방법을 확인해야 합니다. 예를 들어, 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사 교과성적 중 석차등급 평균을 사용하는지 등이 필요합니다.
+2. **석차등급 평균**: 3.92라는 성적 산출값이 어떤 석차등급 평균을 의미하는지 확인해야 합니다. 예를 들어, 국어 85점, 수학 90점, 영어 75점, 사회 80점, 과학 85점, 한국사 80점을 가지고 3.92라는 점수로 산출되었는지 확인해야 합니다.
+3. **모집단위와 모집인원**: 화학환경공학부의 일반학생전형에 대한 모집단위와 모집인원을 확인해야 합니다. 이 정보를 통해 지원 가능성을 판단할 수 있습니다.
+4. **기타 요구사항**: 학교에서 요구하는 기타 조건들이 있는지 확인해야 합니다. 예를 들어, 특정 과목의 성적이 필요하거나, 특별한 활동 경력이 요구되는 경우가 있을 수 있습니다.
+위와 같은 정보들을 바탕으로 판단해보겠습니다. 만약 위에 나열된 정보 중 일부가 부족하다면, "https://ipsi. deu. ac. kr/main. do"를 참조하여 더 자세한 정보를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 명확한 정보를 제공하지 않고, 오히려 불확실성을 강조하고 있습니다. 원본 텍스트에서는 성적 4.25가 합격 가능성이 높다고 명시하고 있으나, 생성된 응답은 이를 반박하는 내용으로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 상충하는 정보를 제공합니다. 원본에서는 성적이 합격 가능성이 높다고 판단했으나, 생성된 응답은 그 가능성을 불확실하다고 언급하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 내용인 합격 가능성에 대한 직접적인 답변을 피하고 있습니다. 따라서 관련성은 있지만, 핵심 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원본 텍스트의 주제와는 다소 동떨어진 내용으로 인해 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 성적 4.25에 대한 합격 가능성을 부정하는 내용으로 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 사실성, 일관성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용이 포함되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트의 핵심 내용을 명확히 전달하지 못해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6231010963669669</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터는 동의대학교의 특정 단과대학 및 모집단위별 지원 자료와 합격 기준을 포함하고 있지 않습니다. 따라서 정시 성적이 4.25인 경우 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할지는 확실하게 알기 어렵습니다.
+추가 정보를 얻으려면 다음과 같은 웹사이트를 참조해 보세요: https://ipsi. deu. ac. kr/main. do
+또는 동의대학교 입학처에 직접 문의하시거나, 해당 대학의 입학 홈페이지에서 최신 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 영화학과의 평균 성적과 표준 편차에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서 제공된 평균 성적과 표준 편차는 다르며, 이로 인해 잘못된 결론을 도출하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 평균 성적과 표준 편차에 대한 수치가 다릅니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 일치하지 않기 때문에 완전한 관련성을 가지지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 수식이 포함되어 있어 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 수치에 대한 설명이 명확하지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 수치와 다르며, 잘못된 정보를 바탕으로 결론을 내리고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있지만, 잘못된 수치로 인해 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 수치와 관련된 설명이 복잡하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.7228974090874803</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 현재 제공된 데이터를 바탕으로 판단하기 어렵습니다. 영화학과의 경우, 지원자의 수능 점수가 높은 편이므로 평균 점수와 표준편차를 고려해야 합니다.
+현재 데이터에서 영화학과의 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 391.17이고, 표준 편차는 12.20입니다. 
+4.2라는 점수는 수능 점수로 환산하면 다음과 같습니다:
+\[ \text{수능 점수} = (4.2 - \text{수능 평균}) \times \frac{\text{표준 편차}}{\text{수능 평균}} + 391.17 \]
+하지만 이 계산을 정확히 하기 위해서는 수능 평균 점수가 필요합니다. 만약 수능 평균이 400점이라면:
+\[ \text{수능 점수} = (4.2 - 4) \times \frac{12.20}{400} + 391.17 \approx 395.68 \]
+이렇게 환산된 수능 점수가 영화학과의 평균 점수(391.17)보다 높다면 합격 가능성은 있습니다.
+하지만 이는 추정치일 뿐 실제 합격 가능성을 정확히 판단하기 위해서는 해당 대학에서 제공하는 최종 합격 기준을 확인해야 합니다. 따라서, 해당 대학의 입학처 웹사이트(https://ipsi. deu. ac. kr/main. do)를 방문하여 최신 정보와 합격 기준을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 원본의 내용을 잘 요약하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9556123063978877</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 바탕으로 면접이 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
